--- a/raw_data/20200818_saline/20200818_Sensor3_Test_92.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_92.xlsx
@@ -1,3380 +1,3796 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F485518-DEB5-45DA-9367-D033A2D86EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>82458.205229</v>
+        <v>82458.205228999999</v>
       </c>
       <c r="B2" s="1">
-        <v>22.905057</v>
+        <v>22.905056999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1150.850000</v>
+        <v>1150.8499999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-260.185000</v>
+        <v>-260.185</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>82468.350928</v>
       </c>
       <c r="G2" s="1">
-        <v>22.907875</v>
+        <v>22.907875000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1171.930000</v>
+        <v>1171.93</v>
       </c>
       <c r="I2" s="1">
-        <v>-217.633000</v>
+        <v>-217.63300000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>82478.787714</v>
+        <v>82478.787714000006</v>
       </c>
       <c r="L2" s="1">
         <v>22.910774</v>
       </c>
       <c r="M2" s="1">
-        <v>1200.640000</v>
+        <v>1200.6400000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-152.906000</v>
+        <v>-152.90600000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>82489.300918</v>
+        <v>82489.300917999994</v>
       </c>
       <c r="Q2" s="1">
-        <v>22.913695</v>
+        <v>22.913695000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1208.890000</v>
+        <v>1208.8900000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-130.572000</v>
+        <v>-130.572</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>82500.195541</v>
+        <v>82500.195540999994</v>
       </c>
       <c r="V2" s="1">
-        <v>22.916721</v>
+        <v>22.916720999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1216.620000</v>
+        <v>1216.6199999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-109.449000</v>
+        <v>-109.449</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>82510.581800</v>
+        <v>82510.5818</v>
       </c>
       <c r="AA2" s="1">
-        <v>22.919606</v>
+        <v>22.919606000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>1224.540000</v>
+        <v>1224.54</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.819400</v>
+        <v>-91.819400000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>82521.466506</v>
+        <v>82521.466505999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>22.922630</v>
+        <v>22.922630000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1229.270000</v>
+        <v>1229.27</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.899300</v>
+        <v>-86.899299999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>82531.577916</v>
+        <v>82531.577915999995</v>
       </c>
       <c r="AK2" s="1">
         <v>22.925438</v>
       </c>
       <c r="AL2" s="1">
-        <v>1236.420000</v>
+        <v>1236.42</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.831600</v>
+        <v>-89.831599999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>82542.152158</v>
+        <v>82542.152157999997</v>
       </c>
       <c r="AP2" s="1">
         <v>22.928376</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.423000</v>
+        <v>-101.423</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>82553.847296</v>
+        <v>82553.847296000007</v>
       </c>
       <c r="AU2" s="1">
-        <v>22.931624</v>
+        <v>22.931623999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1254.160000</v>
+        <v>1254.1600000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.525000</v>
+        <v>-120.52500000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>82564.665538</v>
+        <v>82564.665538000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>22.934629</v>
+        <v>22.934629000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1262.550000</v>
+        <v>1262.55</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.872000</v>
+        <v>-137.87200000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>82575.329026</v>
+        <v>82575.329026000007</v>
       </c>
       <c r="BE2" s="1">
-        <v>22.937591</v>
+        <v>22.937591000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1302.420000</v>
+        <v>1302.42</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.538000</v>
+        <v>-219.53800000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>82585.589764</v>
+        <v>82585.589764000004</v>
       </c>
       <c r="BJ2" s="1">
-        <v>22.940442</v>
+        <v>22.940442000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1372.060000</v>
+        <v>1372.06</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.646000</v>
+        <v>-355.64600000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>82596.759175</v>
+        <v>82596.759174999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>22.943544</v>
+        <v>22.943543999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1487.030000</v>
+        <v>1487.03</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.573000</v>
+        <v>-576.57299999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>82607.499543</v>
+        <v>82607.499542999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>22.946528</v>
+        <v>22.946528000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1620.060000</v>
+        <v>1620.06</v>
       </c>
       <c r="BV2" s="1">
-        <v>-824.752000</v>
+        <v>-824.75199999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>82618.217185</v>
+        <v>82618.217185000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>22.949505</v>
+        <v>22.949504999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1772.690000</v>
+        <v>1772.69</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1094.260000</v>
+        <v>-1094.26</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>82629.491658</v>
+        <v>82629.491657999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>22.952637</v>
+        <v>22.952636999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2188.670000</v>
+        <v>2188.67</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1743.210000</v>
+        <v>-1743.21</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>82458.605996</v>
+        <v>82458.605995999998</v>
       </c>
       <c r="B3" s="1">
         <v>22.905168</v>
       </c>
       <c r="C3" s="1">
-        <v>1150.660000</v>
+        <v>1150.6600000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-260.120000</v>
+        <v>-260.12</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>82468.694623</v>
+        <v>82468.694623000003</v>
       </c>
       <c r="G3" s="1">
         <v>22.907971</v>
       </c>
       <c r="H3" s="1">
-        <v>1172.460000</v>
+        <v>1172.46</v>
       </c>
       <c r="I3" s="1">
-        <v>-218.918000</v>
+        <v>-218.91800000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>82479.515841</v>
       </c>
       <c r="L3" s="1">
-        <v>22.910977</v>
+        <v>22.910976999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1200.940000</v>
+        <v>1200.94</v>
       </c>
       <c r="N3" s="1">
-        <v>-152.566000</v>
+        <v>-152.566</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>82490.033539</v>
+        <v>82490.033538999996</v>
       </c>
       <c r="Q3" s="1">
         <v>22.913898</v>
       </c>
       <c r="R3" s="1">
-        <v>1208.890000</v>
+        <v>1208.8900000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-130.596000</v>
+        <v>-130.596</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>82500.535302</v>
+        <v>82500.535302000004</v>
       </c>
       <c r="V3" s="1">
         <v>22.916815</v>
       </c>
       <c r="W3" s="1">
-        <v>1216.720000</v>
+        <v>1216.72</v>
       </c>
       <c r="X3" s="1">
-        <v>-109.450000</v>
+        <v>-109.45</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>82510.924014</v>
+        <v>82510.924014000004</v>
       </c>
       <c r="AA3" s="1">
         <v>22.919701</v>
       </c>
       <c r="AB3" s="1">
-        <v>1224.580000</v>
+        <v>1224.58</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.822500</v>
+        <v>-91.822500000000005</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>82521.816649</v>
       </c>
       <c r="AF3" s="1">
-        <v>22.922727</v>
+        <v>22.922726999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>1229.300000</v>
+        <v>1229.3</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.927200</v>
+        <v>-86.927199999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>82532.272315</v>
+        <v>82532.272314999995</v>
       </c>
       <c r="AK3" s="1">
-        <v>22.925631</v>
+        <v>22.925630999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1236.450000</v>
+        <v>1236.45</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.836100</v>
+        <v>-89.836100000000002</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>82542.863885</v>
+        <v>82542.863884999999</v>
       </c>
       <c r="AP3" s="1">
         <v>22.928573</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1244.310000</v>
+        <v>1244.31</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.432000</v>
+        <v>-101.432</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>82553.955422</v>
+        <v>82553.955421999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>22.931654</v>
+        <v>22.931654000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>1254.180000</v>
+        <v>1254.18</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.515000</v>
+        <v>-120.515</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>82565.079696</v>
+        <v>82565.079696000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>22.934744</v>
+        <v>22.934743999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1262.560000</v>
+        <v>1262.56</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.872000</v>
+        <v>-137.87200000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>82575.691602</v>
+        <v>82575.691602000006</v>
       </c>
       <c r="BE3" s="1">
-        <v>22.937692</v>
+        <v>22.937691999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1302.400000</v>
+        <v>1302.4000000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.533000</v>
+        <v>-219.53299999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>82585.993508</v>
       </c>
       <c r="BJ3" s="1">
-        <v>22.940554</v>
+        <v>22.940553999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1372.060000</v>
+        <v>1372.06</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.674000</v>
+        <v>-355.67399999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>82597.177799</v>
+        <v>82597.177798999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>22.943660</v>
+        <v>22.943660000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1487.040000</v>
+        <v>1487.04</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.589000</v>
+        <v>-576.58900000000006</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>82607.941975</v>
+        <v>82607.941974999994</v>
       </c>
       <c r="BT3" s="1">
-        <v>22.946651</v>
+        <v>22.946650999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1620.170000</v>
+        <v>1620.17</v>
       </c>
       <c r="BV3" s="1">
-        <v>-824.770000</v>
+        <v>-824.77</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>82618.679903</v>
+        <v>82618.679902999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>22.949633</v>
+        <v>22.949632999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1772.410000</v>
+        <v>1772.41</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1094.420000</v>
+        <v>-1094.42</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>82629.743163</v>
+        <v>82629.743163000006</v>
       </c>
       <c r="CD3" s="1">
-        <v>22.952706</v>
+        <v>22.952705999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>2188.020000</v>
+        <v>2188.02</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1744.430000</v>
+        <v>-1744.43</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>82458.945297</v>
+        <v>82458.945296999998</v>
       </c>
       <c r="B4" s="1">
-        <v>22.905263</v>
+        <v>22.905263000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1150.750000</v>
+        <v>1150.75</v>
       </c>
       <c r="D4" s="1">
-        <v>-260.267000</v>
+        <v>-260.267</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>82469.383598</v>
       </c>
       <c r="G4" s="1">
-        <v>22.908162</v>
+        <v>22.908162000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1171.790000</v>
+        <v>1171.79</v>
       </c>
       <c r="I4" s="1">
-        <v>-218.592000</v>
+        <v>-218.59200000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>82479.861056</v>
+        <v>82479.861055999994</v>
       </c>
       <c r="L4" s="1">
-        <v>22.911073</v>
+        <v>22.911072999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>1200.670000</v>
+        <v>1200.67</v>
       </c>
       <c r="N4" s="1">
-        <v>-152.659000</v>
+        <v>-152.65899999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>82490.382698</v>
+        <v>82490.382698000001</v>
       </c>
       <c r="Q4" s="1">
         <v>22.913995</v>
       </c>
       <c r="R4" s="1">
-        <v>1208.930000</v>
+        <v>1208.93</v>
       </c>
       <c r="S4" s="1">
-        <v>-130.605000</v>
+        <v>-130.60499999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>82500.878564</v>
+        <v>82500.878563999999</v>
       </c>
       <c r="V4" s="1">
-        <v>22.916911</v>
+        <v>22.916910999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1216.580000</v>
+        <v>1216.58</v>
       </c>
       <c r="X4" s="1">
-        <v>-109.379000</v>
+        <v>-109.379</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>82511.274182</v>
+        <v>82511.274181999994</v>
       </c>
       <c r="AA4" s="1">
         <v>22.919798</v>
       </c>
       <c r="AB4" s="1">
-        <v>1224.520000</v>
+        <v>1224.52</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.868600</v>
+        <v>-91.868600000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>82522.470904</v>
+        <v>82522.470904000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>22.922909</v>
+        <v>22.922909000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1229.250000</v>
+        <v>1229.25</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.956500</v>
+        <v>-86.956500000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>82532.659723</v>
+        <v>82532.659723000004</v>
       </c>
       <c r="AK4" s="1">
         <v>22.925739</v>
       </c>
       <c r="AL4" s="1">
-        <v>1236.440000</v>
+        <v>1236.44</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.825400</v>
+        <v>-89.825400000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>82543.269116</v>
+        <v>82543.269115999996</v>
       </c>
       <c r="AP4" s="1">
-        <v>22.928686</v>
+        <v>22.928685999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1244.330000</v>
+        <v>1244.33</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.439000</v>
+        <v>-101.43899999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>82554.314527</v>
+        <v>82554.314526999995</v>
       </c>
       <c r="AU4" s="1">
-        <v>22.931754</v>
+        <v>22.931754000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>1254.190000</v>
+        <v>1254.19</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.514000</v>
+        <v>-120.514</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>82565.441293</v>
+        <v>82565.441292999996</v>
       </c>
       <c r="AZ4" s="1">
-        <v>22.934845</v>
+        <v>22.934844999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1262.560000</v>
+        <v>1262.56</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.894000</v>
+        <v>-137.89400000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>82576.042770</v>
+        <v>82576.04277</v>
       </c>
       <c r="BE4" s="1">
-        <v>22.937790</v>
+        <v>22.93779</v>
       </c>
       <c r="BF4" s="1">
-        <v>1302.410000</v>
+        <v>1302.4100000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.553000</v>
+        <v>-219.553</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>82586.422094</v>
+        <v>82586.422093999994</v>
       </c>
       <c r="BJ4" s="1">
         <v>22.940673</v>
       </c>
       <c r="BK4" s="1">
-        <v>1372.080000</v>
+        <v>1372.08</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.648000</v>
+        <v>-355.64800000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>82597.597413</v>
+        <v>82597.597412999996</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.943777</v>
+        <v>22.943777000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1487.040000</v>
+        <v>1487.04</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.614000</v>
+        <v>-576.61400000000003</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>82608.375478</v>
+        <v>82608.375478000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>22.946771</v>
+        <v>22.946770999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1620.200000</v>
+        <v>1620.2</v>
       </c>
       <c r="BV4" s="1">
-        <v>-824.786000</v>
+        <v>-824.78599999999994</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>82619.127752</v>
       </c>
       <c r="BY4" s="1">
-        <v>22.949758</v>
+        <v>22.949757999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1772.580000</v>
+        <v>1772.58</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1094.420000</v>
+        <v>-1094.42</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>82630.261945</v>
+        <v>82630.261945000006</v>
       </c>
       <c r="CD4" s="1">
-        <v>22.952851</v>
+        <v>22.952850999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2188.710000</v>
+        <v>2188.71</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1746.350000</v>
+        <v>-1746.35</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>82459.624781</v>
+        <v>82459.624781000006</v>
       </c>
       <c r="B5" s="1">
-        <v>22.905451</v>
+        <v>22.905450999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1150.610000</v>
+        <v>1150.6099999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-260.190000</v>
+        <v>-260.19</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>82469.731294</v>
+        <v>82469.731293999997</v>
       </c>
       <c r="G5" s="1">
-        <v>22.908259</v>
+        <v>22.908259000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1172.210000</v>
+        <v>1172.21</v>
       </c>
       <c r="I5" s="1">
-        <v>-218.737000</v>
+        <v>-218.73699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>82480.204784</v>
+        <v>82480.204784000001</v>
       </c>
       <c r="L5" s="1">
         <v>22.911168</v>
       </c>
       <c r="M5" s="1">
-        <v>1200.480000</v>
+        <v>1200.48</v>
       </c>
       <c r="N5" s="1">
-        <v>-152.838000</v>
+        <v>-152.83799999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>82490.727442</v>
+        <v>82490.727442000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>22.914091</v>
+        <v>22.914090999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1208.850000</v>
+        <v>1208.8499999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-130.671000</v>
+        <v>-130.67099999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>82501.547172</v>
+        <v>82501.547172000006</v>
       </c>
       <c r="V5" s="1">
-        <v>22.917096</v>
+        <v>22.917096000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1216.470000</v>
+        <v>1216.47</v>
       </c>
       <c r="X5" s="1">
-        <v>-109.332000</v>
+        <v>-109.33199999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>82511.950726</v>
+        <v>82511.950725999995</v>
       </c>
       <c r="AA5" s="1">
-        <v>22.919986</v>
+        <v>22.919986000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1224.580000</v>
+        <v>1224.58</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.896200</v>
+        <v>-91.896199999999993</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>82522.844397</v>
+        <v>82522.844396999993</v>
       </c>
       <c r="AF5" s="1">
         <v>22.923012</v>
       </c>
       <c r="AG5" s="1">
-        <v>1229.310000</v>
+        <v>1229.31</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.923000</v>
+        <v>-86.923000000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>82533.007386</v>
+        <v>82533.007385999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>22.925835</v>
+        <v>22.925834999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1236.440000</v>
+        <v>1236.44</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.840500</v>
+        <v>-89.840500000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>82543.659523</v>
+        <v>82543.659522999995</v>
       </c>
       <c r="AP5" s="1">
         <v>22.928794</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1244.330000</v>
+        <v>1244.33</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.453000</v>
+        <v>-101.453</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>82554.678627</v>
+        <v>82554.678627000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>22.931855</v>
+        <v>22.931854999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1254.190000</v>
+        <v>1254.19</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.502000</v>
+        <v>-120.502</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>82565.831631</v>
+        <v>82565.831630999994</v>
       </c>
       <c r="AZ5" s="1">
         <v>22.934953</v>
       </c>
       <c r="BA5" s="1">
-        <v>1262.540000</v>
+        <v>1262.54</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.861000</v>
+        <v>-137.86099999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>82576.487680</v>
+        <v>82576.487680000006</v>
       </c>
       <c r="BE5" s="1">
-        <v>22.937913</v>
+        <v>22.937913000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1302.400000</v>
+        <v>1302.4000000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.549000</v>
+        <v>-219.54900000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>82586.746468</v>
+        <v>82586.746467999998</v>
       </c>
       <c r="BJ5" s="1">
         <v>22.940763</v>
       </c>
       <c r="BK5" s="1">
-        <v>1372.100000</v>
+        <v>1372.1</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.632000</v>
+        <v>-355.63200000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>82597.980325</v>
+        <v>82597.980324999997</v>
       </c>
       <c r="BO5" s="1">
         <v>22.943883</v>
       </c>
       <c r="BP5" s="1">
-        <v>1487.060000</v>
+        <v>1487.06</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.595000</v>
+        <v>-576.59500000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>82608.803559</v>
+        <v>82608.803559000007</v>
       </c>
       <c r="BT5" s="1">
-        <v>22.946890</v>
+        <v>22.94689</v>
       </c>
       <c r="BU5" s="1">
-        <v>1620.220000</v>
+        <v>1620.22</v>
       </c>
       <c r="BV5" s="1">
-        <v>-824.903000</v>
+        <v>-824.90300000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>82619.560760</v>
+        <v>82619.560759999993</v>
       </c>
       <c r="BY5" s="1">
-        <v>22.949878</v>
+        <v>22.949877999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1772.610000</v>
+        <v>1772.61</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1094.330000</v>
+        <v>-1094.33</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>82630.781258</v>
+        <v>82630.781258000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>22.952995</v>
+        <v>22.952995000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2188.350000</v>
+        <v>2188.35</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1745.330000</v>
+        <v>-1745.33</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>82460.018602</v>
+        <v>82460.018601999996</v>
       </c>
       <c r="B6" s="1">
-        <v>22.905561</v>
+        <v>22.905560999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1150.660000</v>
+        <v>1150.6600000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-260.113000</v>
+        <v>-260.113</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>82470.078959</v>
+        <v>82470.078959000006</v>
       </c>
       <c r="G6" s="1">
         <v>22.908355</v>
       </c>
       <c r="H6" s="1">
-        <v>1172.010000</v>
+        <v>1172.01</v>
       </c>
       <c r="I6" s="1">
-        <v>-218.954000</v>
+        <v>-218.95400000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>82480.862480</v>
+        <v>82480.862479999996</v>
       </c>
       <c r="L6" s="1">
         <v>22.911351</v>
       </c>
       <c r="M6" s="1">
-        <v>1200.690000</v>
+        <v>1200.69</v>
       </c>
       <c r="N6" s="1">
-        <v>-152.791000</v>
+        <v>-152.791</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>82491.392577</v>
+        <v>82491.392577000006</v>
       </c>
       <c r="Q6" s="1">
-        <v>22.914276</v>
+        <v>22.914276000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1208.880000</v>
+        <v>1208.8800000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-130.598000</v>
+        <v>-130.59800000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>82501.913683</v>
+        <v>82501.913683000006</v>
       </c>
       <c r="V6" s="1">
-        <v>22.917198</v>
+        <v>22.917197999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1216.610000</v>
+        <v>1216.6099999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-109.403000</v>
+        <v>-109.40300000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>82512.318758</v>
+        <v>82512.318757999994</v>
       </c>
       <c r="AA6" s="1">
-        <v>22.920089</v>
+        <v>22.920089000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1224.590000</v>
+        <v>1224.5899999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.697100</v>
+        <v>-91.697100000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>82523.190605</v>
+        <v>82523.190604999996</v>
       </c>
       <c r="AF6" s="1">
         <v>22.923109</v>
       </c>
       <c r="AG6" s="1">
-        <v>1229.290000</v>
+        <v>1229.29</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.997600</v>
+        <v>-86.997600000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>82533.356073</v>
+        <v>82533.356073000003</v>
       </c>
       <c r="AK6" s="1">
         <v>22.925932</v>
       </c>
       <c r="AL6" s="1">
-        <v>1236.410000</v>
+        <v>1236.4100000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.849400</v>
+        <v>-89.849400000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>82544.039403</v>
+        <v>82544.039403000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.928900</v>
+        <v>22.928899999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1244.310000</v>
+        <v>1244.31</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.444000</v>
+        <v>-101.444</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>82555.102173</v>
+        <v>82555.102173000007</v>
       </c>
       <c r="AU6" s="1">
-        <v>22.931973</v>
+        <v>22.931972999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1254.170000</v>
+        <v>1254.17</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.515000</v>
+        <v>-120.515</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>82566.404510</v>
+        <v>82566.404509999993</v>
       </c>
       <c r="AZ6" s="1">
         <v>22.935112</v>
       </c>
       <c r="BA6" s="1">
-        <v>1262.530000</v>
+        <v>1262.53</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.865000</v>
+        <v>-137.86500000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>82576.772880</v>
+        <v>82576.772880000004</v>
       </c>
       <c r="BE6" s="1">
-        <v>22.937992</v>
+        <v>22.937992000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1302.410000</v>
+        <v>1302.4100000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.545000</v>
+        <v>-219.54499999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>82587.128851</v>
+        <v>82587.128851000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>22.940869</v>
+        <v>22.940868999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1372.070000</v>
+        <v>1372.07</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.676000</v>
+        <v>-355.67599999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>82598.402915</v>
+        <v>82598.402914999999</v>
       </c>
       <c r="BO6" s="1">
         <v>22.944001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1487.000000</v>
+        <v>1487</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.613000</v>
+        <v>-576.61300000000006</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>82609.217189</v>
+        <v>82609.217189000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>22.947005</v>
+        <v>22.947005000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1620.200000</v>
+        <v>1620.2</v>
       </c>
       <c r="BV6" s="1">
-        <v>-824.941000</v>
+        <v>-824.94100000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>82620.170375</v>
+        <v>82620.170375000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>22.950047</v>
+        <v>22.950047000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1772.540000</v>
+        <v>1772.54</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1094.360000</v>
+        <v>-1094.3599999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>82631.331822</v>
+        <v>82631.331821999993</v>
       </c>
       <c r="CD6" s="1">
-        <v>22.953148</v>
+        <v>22.953147999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2187.940000</v>
+        <v>2187.94</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1744.590000</v>
+        <v>-1744.59</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>82460.334554</v>
+        <v>82460.334554000001</v>
       </c>
       <c r="B7" s="1">
-        <v>22.905648</v>
+        <v>22.905647999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1150.830000</v>
+        <v>1150.83</v>
       </c>
       <c r="D7" s="1">
-        <v>-260.099000</v>
+        <v>-260.09899999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>82470.740621</v>
+        <v>82470.740621000004</v>
       </c>
       <c r="G7" s="1">
-        <v>22.908539</v>
+        <v>22.908539000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1172.620000</v>
+        <v>1172.6199999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-218.475000</v>
+        <v>-218.47499999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>82481.241422</v>
+        <v>82481.241422000006</v>
       </c>
       <c r="L7" s="1">
-        <v>22.911456</v>
+        <v>22.911456000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1200.890000</v>
+        <v>1200.8900000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-152.794000</v>
+        <v>-152.79400000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>82491.772482</v>
       </c>
       <c r="Q7" s="1">
-        <v>22.914381</v>
+        <v>22.914380999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1208.910000</v>
+        <v>1208.9100000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-130.520000</v>
+        <v>-130.52000000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>82502.258898</v>
       </c>
       <c r="V7" s="1">
-        <v>22.917294</v>
+        <v>22.917293999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>1216.600000</v>
+        <v>1216.5999999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-109.428000</v>
+        <v>-109.428</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>82512.665957</v>
+        <v>82512.665957000005</v>
       </c>
       <c r="AA7" s="1">
         <v>22.920185</v>
       </c>
       <c r="AB7" s="1">
-        <v>1224.470000</v>
+        <v>1224.47</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.897000</v>
+        <v>-91.897000000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>82523.534791</v>
+        <v>82523.534790999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>22.923204</v>
+        <v>22.923203999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>1229.250000</v>
+        <v>1229.25</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.943500</v>
+        <v>-86.9435</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>82533.777673</v>
+        <v>82533.777673000004</v>
       </c>
       <c r="AK7" s="1">
-        <v>22.926049</v>
+        <v>22.926048999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1236.440000</v>
+        <v>1236.44</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.836100</v>
+        <v>-89.836100000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>82544.473899</v>
+        <v>82544.473899000004</v>
       </c>
       <c r="AP7" s="1">
-        <v>22.929021</v>
+        <v>22.929020999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1244.310000</v>
+        <v>1244.31</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.397000</v>
+        <v>-101.39700000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>82555.408205</v>
       </c>
       <c r="AU7" s="1">
-        <v>22.932058</v>
+        <v>22.932058000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1254.170000</v>
+        <v>1254.17</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.505000</v>
+        <v>-120.505</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>82566.519581</v>
       </c>
       <c r="AZ7" s="1">
-        <v>22.935144</v>
+        <v>22.935144000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1262.520000</v>
+        <v>1262.52</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.877000</v>
+        <v>-137.87700000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>82577.137564</v>
+        <v>82577.137564000004</v>
       </c>
       <c r="BE7" s="1">
         <v>22.938094</v>
       </c>
       <c r="BF7" s="1">
-        <v>1302.400000</v>
+        <v>1302.4000000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.568000</v>
+        <v>-219.56800000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>82587.520690</v>
+        <v>82587.520690000005</v>
       </c>
       <c r="BJ7" s="1">
-        <v>22.940978</v>
+        <v>22.940978000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1372.060000</v>
+        <v>1372.06</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.659000</v>
+        <v>-355.65899999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>82598.799219</v>
+        <v>82598.799218999993</v>
       </c>
       <c r="BO7" s="1">
-        <v>22.944111</v>
+        <v>22.944110999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1487.010000</v>
+        <v>1487.01</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.607000</v>
+        <v>-576.60699999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>82609.648213</v>
+        <v>82609.648212999993</v>
       </c>
       <c r="BT7" s="1">
         <v>22.947125</v>
       </c>
       <c r="BU7" s="1">
-        <v>1620.250000</v>
+        <v>1620.25</v>
       </c>
       <c r="BV7" s="1">
-        <v>-825.009000</v>
+        <v>-825.00900000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>82620.405478</v>
+        <v>82620.405478000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>22.950113</v>
+        <v>22.950113000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1772.540000</v>
+        <v>1772.54</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1094.390000</v>
+        <v>-1094.3900000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>82631.861047</v>
+        <v>82631.861046999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>22.953295</v>
+        <v>22.953295000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2188.870000</v>
+        <v>2188.87</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1746.440000</v>
+        <v>-1746.44</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>82460.820672</v>
+        <v>82460.820672000002</v>
       </c>
       <c r="B8" s="1">
-        <v>22.905784</v>
+        <v>22.905784000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1150.610000</v>
+        <v>1150.6099999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-260.124000</v>
+        <v>-260.12400000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>82471.111133</v>
+        <v>82471.111132999999</v>
       </c>
       <c r="G8" s="1">
         <v>22.908642</v>
       </c>
       <c r="H8" s="1">
-        <v>1172.750000</v>
+        <v>1172.75</v>
       </c>
       <c r="I8" s="1">
-        <v>-219.335000</v>
+        <v>-219.33500000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>82481.586143</v>
+        <v>82481.586142999993</v>
       </c>
       <c r="L8" s="1">
         <v>22.911552</v>
       </c>
       <c r="M8" s="1">
-        <v>1200.590000</v>
+        <v>1200.5899999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-152.811000</v>
+        <v>-152.81100000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>82492.125632</v>
+        <v>82492.125631999996</v>
       </c>
       <c r="Q8" s="1">
         <v>22.914479</v>
       </c>
       <c r="R8" s="1">
-        <v>1208.930000</v>
+        <v>1208.93</v>
       </c>
       <c r="S8" s="1">
-        <v>-130.549000</v>
+        <v>-130.54900000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>82502.605106</v>
+        <v>82502.605106000003</v>
       </c>
       <c r="V8" s="1">
-        <v>22.917390</v>
+        <v>22.917390000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1216.650000</v>
+        <v>1216.6500000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-109.515000</v>
+        <v>-109.515</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>82513.037460</v>
+        <v>82513.037460000007</v>
       </c>
       <c r="AA8" s="1">
-        <v>22.920288</v>
+        <v>22.920287999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1224.430000</v>
+        <v>1224.43</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.814200</v>
+        <v>-91.8142</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>82523.961846</v>
+        <v>82523.961846000006</v>
       </c>
       <c r="AF8" s="1">
         <v>22.923323</v>
       </c>
       <c r="AG8" s="1">
-        <v>1229.350000</v>
+        <v>1229.3499999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.966000</v>
+        <v>-86.965999999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>82534.050473</v>
+        <v>82534.050472999996</v>
       </c>
       <c r="AK8" s="1">
-        <v>22.926125</v>
+        <v>22.926124999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1236.430000</v>
+        <v>1236.43</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.845200</v>
+        <v>-89.845200000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>82544.757612</v>
+        <v>82544.757612000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>22.929099</v>
+        <v>22.929099000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.439000</v>
+        <v>-101.43899999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>82555.771308</v>
+        <v>82555.771307999996</v>
       </c>
       <c r="AU8" s="1">
-        <v>22.932159</v>
+        <v>22.932158999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1254.200000</v>
+        <v>1254.2</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.521000</v>
+        <v>-120.521</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>82566.877197</v>
+        <v>82566.877196999994</v>
       </c>
       <c r="AZ8" s="1">
-        <v>22.935244</v>
+        <v>22.935244000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1262.560000</v>
+        <v>1262.56</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.880000</v>
+        <v>-137.88</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>82577.496543</v>
+        <v>82577.496543000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>22.938193</v>
+        <v>22.938192999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1302.410000</v>
+        <v>1302.4100000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.562000</v>
+        <v>-219.56200000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>82588.269934</v>
+        <v>82588.269933999996</v>
       </c>
       <c r="BJ8" s="1">
-        <v>22.941186</v>
+        <v>22.941185999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1372.100000</v>
+        <v>1372.1</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.681000</v>
+        <v>-355.68099999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>82599.220851</v>
+        <v>82599.220851000005</v>
       </c>
       <c r="BO8" s="1">
-        <v>22.944228</v>
+        <v>22.944227999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1487.030000</v>
+        <v>1487.03</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.569000</v>
+        <v>-576.56899999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>82610.070309</v>
+        <v>82610.070309000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>22.947242</v>
+        <v>22.947241999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1620.370000</v>
+        <v>1620.37</v>
       </c>
       <c r="BV8" s="1">
-        <v>-825.015000</v>
+        <v>-825.01499999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>82620.831549</v>
+        <v>82620.831548999995</v>
       </c>
       <c r="BY8" s="1">
-        <v>22.950231</v>
+        <v>22.950230999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1772.460000</v>
+        <v>1772.46</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1094.460000</v>
+        <v>-1094.46</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>82632.378870</v>
+        <v>82632.37887</v>
       </c>
       <c r="CD8" s="1">
-        <v>22.953439</v>
+        <v>22.953438999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2188.460000</v>
+        <v>2188.46</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1745.280000</v>
+        <v>-1745.28</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>82461.065690</v>
+        <v>82461.065690000003</v>
       </c>
       <c r="B9" s="1">
-        <v>22.905852</v>
+        <v>22.905851999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1150.860000</v>
+        <v>1150.8599999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-260.213000</v>
+        <v>-260.21300000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>82471.456843</v>
+        <v>82471.456843000007</v>
       </c>
       <c r="G9" s="1">
         <v>22.908738</v>
       </c>
       <c r="H9" s="1">
-        <v>1172.620000</v>
+        <v>1172.6199999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-218.838000</v>
+        <v>-218.83799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>82481.934335</v>
+        <v>82481.934334999998</v>
       </c>
       <c r="L9" s="1">
         <v>22.911648</v>
       </c>
       <c r="M9" s="1">
-        <v>1200.660000</v>
+        <v>1200.6600000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-152.804000</v>
+        <v>-152.804</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>82492.474817</v>
+        <v>82492.474816999995</v>
       </c>
       <c r="Q9" s="1">
         <v>22.914576</v>
       </c>
       <c r="R9" s="1">
-        <v>1208.910000</v>
+        <v>1208.9100000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-130.568000</v>
+        <v>-130.56800000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>82503.027560</v>
+        <v>82503.027560000002</v>
       </c>
       <c r="V9" s="1">
-        <v>22.917508</v>
+        <v>22.917508000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>1216.680000</v>
+        <v>1216.68</v>
       </c>
       <c r="X9" s="1">
-        <v>-109.481000</v>
+        <v>-109.48099999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>82513.726489</v>
+        <v>82513.726488999993</v>
       </c>
       <c r="AA9" s="1">
-        <v>22.920480</v>
+        <v>22.920480000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1224.550000</v>
+        <v>1224.55</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.801400</v>
+        <v>-91.801400000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>82524.239605</v>
+        <v>82524.239604999995</v>
       </c>
       <c r="AF9" s="1">
-        <v>22.923400</v>
+        <v>22.923400000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1229.300000</v>
+        <v>1229.3</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.965700</v>
+        <v>-86.965699999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>82534.399193</v>
+        <v>82534.399193000005</v>
       </c>
       <c r="AK9" s="1">
-        <v>22.926222</v>
+        <v>22.926221999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1236.440000</v>
+        <v>1236.44</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.876000</v>
+        <v>-89.876000000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>82545.117242</v>
+        <v>82545.117241999993</v>
       </c>
       <c r="AP9" s="1">
-        <v>22.929199</v>
+        <v>22.929199000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.408000</v>
+        <v>-101.408</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>82556.137323</v>
+        <v>82556.137323000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>22.932260</v>
+        <v>22.932259999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1254.200000</v>
+        <v>1254.2</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.523000</v>
+        <v>-120.523</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>82567.595933</v>
+        <v>82567.595933000004</v>
       </c>
       <c r="AZ9" s="1">
-        <v>22.935443</v>
+        <v>22.935442999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1262.540000</v>
+        <v>1262.54</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.836000</v>
+        <v>-137.83600000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>82578.220874</v>
+        <v>82578.220874000006</v>
       </c>
       <c r="BE9" s="1">
         <v>22.938395</v>
       </c>
       <c r="BF9" s="1">
-        <v>1302.390000</v>
+        <v>1302.3900000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.541000</v>
+        <v>-219.541</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>82588.669435</v>
+        <v>82588.669435000003</v>
       </c>
       <c r="BJ9" s="1">
-        <v>22.941297</v>
+        <v>22.941296999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1372.070000</v>
+        <v>1372.07</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.664000</v>
+        <v>-355.66399999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>82599.617656</v>
+        <v>82599.617656000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>22.944338</v>
+        <v>22.944337999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1487.050000</v>
+        <v>1487.05</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.582000</v>
+        <v>-576.58199999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>82610.485460</v>
+        <v>82610.485459999996</v>
       </c>
       <c r="BT9" s="1">
         <v>22.947357</v>
       </c>
       <c r="BU9" s="1">
-        <v>1620.190000</v>
+        <v>1620.19</v>
       </c>
       <c r="BV9" s="1">
-        <v>-825.094000</v>
+        <v>-825.09400000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>82621.569570</v>
+        <v>82621.569570000007</v>
       </c>
       <c r="BY9" s="1">
         <v>22.950436</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1772.470000</v>
+        <v>1772.47</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1094.620000</v>
+        <v>-1094.6199999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>82633.245910</v>
+        <v>82633.245909999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>22.953679</v>
+        <v>22.953679000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2188.130000</v>
+        <v>2188.13</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1744.090000</v>
+        <v>-1744.09</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>82461.410377</v>
+        <v>82461.410376999993</v>
       </c>
       <c r="B10" s="1">
-        <v>22.905947</v>
+        <v>22.905947000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1150.980000</v>
+        <v>1150.98</v>
       </c>
       <c r="D10" s="1">
-        <v>-260.399000</v>
+        <v>-260.399</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>82471.800571</v>
       </c>
       <c r="G10" s="1">
-        <v>22.908833</v>
+        <v>22.908833000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1172.430000</v>
+        <v>1172.43</v>
       </c>
       <c r="I10" s="1">
-        <v>-218.912000</v>
+        <v>-218.91200000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>82482.356430</v>
+        <v>82482.35643</v>
       </c>
       <c r="L10" s="1">
         <v>22.911766</v>
       </c>
       <c r="M10" s="1">
-        <v>1200.650000</v>
+        <v>1200.6500000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-152.777000</v>
+        <v>-152.77699999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>82492.897904</v>
+        <v>82492.897903999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.914694</v>
+        <v>22.914694000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1208.920000</v>
+        <v>1208.92</v>
       </c>
       <c r="S10" s="1">
-        <v>-130.669000</v>
+        <v>-130.66900000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>82503.300993</v>
+        <v>82503.300992999997</v>
       </c>
       <c r="V10" s="1">
-        <v>22.917584</v>
+        <v>22.917584000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1216.520000</v>
+        <v>1216.52</v>
       </c>
       <c r="X10" s="1">
-        <v>-109.458000</v>
+        <v>-109.458</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>82514.075587</v>
+        <v>82514.075586999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>22.920577</v>
+        <v>22.920577000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>1224.540000</v>
+        <v>1224.54</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.906600</v>
+        <v>-91.906599999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>82524.584821</v>
+        <v>82524.584820999997</v>
       </c>
       <c r="AF10" s="1">
         <v>22.923496</v>
       </c>
       <c r="AG10" s="1">
-        <v>1229.320000</v>
+        <v>1229.32</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.961600</v>
+        <v>-86.961600000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>82534.748345</v>
       </c>
       <c r="AK10" s="1">
-        <v>22.926319</v>
+        <v>22.926318999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1236.430000</v>
+        <v>1236.43</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.840200</v>
+        <v>-89.840199999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>82545.480816</v>
+        <v>82545.480815999996</v>
       </c>
       <c r="AP10" s="1">
-        <v>22.929300</v>
+        <v>22.929300000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.431000</v>
+        <v>-101.431</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>82556.867434</v>
       </c>
       <c r="AU10" s="1">
-        <v>22.932463</v>
+        <v>22.932462999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>1254.180000</v>
+        <v>1254.18</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.496000</v>
+        <v>-120.496</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>82567.952524</v>
+        <v>82567.952523999993</v>
       </c>
       <c r="AZ10" s="1">
-        <v>22.935542</v>
+        <v>22.935542000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1262.560000</v>
+        <v>1262.56</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.839000</v>
+        <v>-137.839</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>82578.580302</v>
+        <v>82578.580302000002</v>
       </c>
       <c r="BE10" s="1">
         <v>22.938495</v>
       </c>
       <c r="BF10" s="1">
-        <v>1302.420000</v>
+        <v>1302.42</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.554000</v>
+        <v>-219.554</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>82589.043408</v>
+        <v>82589.043407999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>22.941401</v>
+        <v>22.941400999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1372.080000</v>
+        <v>1372.08</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.683000</v>
+        <v>-355.68299999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>82600.043218</v>
+        <v>82600.043218000006</v>
       </c>
       <c r="BO10" s="1">
-        <v>22.944456</v>
+        <v>22.944455999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1487.030000</v>
+        <v>1487.03</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.645000</v>
+        <v>-576.64499999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>82611.238386</v>
+        <v>82611.238385999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>22.947566</v>
+        <v>22.947565999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1620.230000</v>
+        <v>1620.23</v>
       </c>
       <c r="BV10" s="1">
-        <v>-825.200000</v>
+        <v>-825.2</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>82621.703477</v>
+        <v>82621.703477000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>22.950473</v>
+        <v>22.950472999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1772.460000</v>
+        <v>1772.46</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1094.450000</v>
+        <v>-1094.45</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>82633.460646</v>
+        <v>82633.460646000007</v>
       </c>
       <c r="CD10" s="1">
-        <v>22.953739</v>
+        <v>22.953738999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2188.610000</v>
+        <v>2188.61</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1746.080000</v>
+        <v>-1746.08</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>82461.836973</v>
+        <v>82461.836972999998</v>
       </c>
       <c r="B11" s="1">
-        <v>22.906066</v>
+        <v>22.906065999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1150.780000</v>
+        <v>1150.78</v>
       </c>
       <c r="D11" s="1">
-        <v>-260.278000</v>
+        <v>-260.27800000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>82472.228122</v>
       </c>
       <c r="G11" s="1">
-        <v>22.908952</v>
+        <v>22.908951999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1172.490000</v>
+        <v>1172.49</v>
       </c>
       <c r="I11" s="1">
-        <v>-218.629000</v>
+        <v>-218.62899999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>82482.636669</v>
       </c>
       <c r="L11" s="1">
-        <v>22.911844</v>
+        <v>22.911843999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1200.610000</v>
+        <v>1200.6099999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-152.702000</v>
+        <v>-152.702</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>82493.177151</v>
+        <v>82493.177150999996</v>
       </c>
       <c r="Q11" s="1">
-        <v>22.914771</v>
+        <v>22.914771000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>1208.860000</v>
+        <v>1208.8599999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-130.639000</v>
+        <v>-130.63900000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>82503.644721</v>
+        <v>82503.644721000004</v>
       </c>
       <c r="V11" s="1">
         <v>22.917679</v>
       </c>
       <c r="W11" s="1">
-        <v>1216.570000</v>
+        <v>1216.57</v>
       </c>
       <c r="X11" s="1">
-        <v>-109.437000</v>
+        <v>-109.437</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>82514.422290</v>
+        <v>82514.422290000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>22.920673</v>
+        <v>22.920673000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1224.510000</v>
+        <v>1224.51</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.811600</v>
+        <v>-91.811599999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>82524.928052</v>
+        <v>82524.928052000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>22.923591</v>
+        <v>22.923590999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1229.270000</v>
+        <v>1229.27</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.963500</v>
+        <v>-86.963499999999996</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>82535.444759</v>
+        <v>82535.444759000005</v>
       </c>
       <c r="AK11" s="1">
-        <v>22.926512</v>
+        <v>22.926511999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1236.420000</v>
+        <v>1236.42</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.857900</v>
+        <v>-89.857900000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>82546.196009</v>
+        <v>82546.196009000007</v>
       </c>
       <c r="AP11" s="1">
         <v>22.929499</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1244.300000</v>
+        <v>1244.3</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.414000</v>
+        <v>-101.414</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>82557.249386</v>
+        <v>82557.249385999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>22.932569</v>
+        <v>22.932569000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1254.180000</v>
+        <v>1254.18</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.518000</v>
+        <v>-120.518</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>82568.312619</v>
+        <v>82568.312619000004</v>
       </c>
       <c r="AZ11" s="1">
-        <v>22.935642</v>
+        <v>22.935642000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1262.530000</v>
+        <v>1262.53</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.869000</v>
+        <v>-137.869</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>82578.940895</v>
+        <v>82578.940895000007</v>
       </c>
       <c r="BE11" s="1">
-        <v>22.938595</v>
+        <v>22.938594999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1302.430000</v>
+        <v>1302.43</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.551000</v>
+        <v>-219.55099999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>82589.742303</v>
+        <v>82589.742303000006</v>
       </c>
       <c r="BJ11" s="1">
         <v>22.941595</v>
       </c>
       <c r="BK11" s="1">
-        <v>1372.090000</v>
+        <v>1372.09</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.646000</v>
+        <v>-355.64600000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>82600.751970</v>
+        <v>82600.751969999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>22.944653</v>
+        <v>22.944652999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1487.050000</v>
+        <v>1487.05</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.668000</v>
+        <v>-576.66800000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>82611.346019</v>
+        <v>82611.346019000004</v>
       </c>
       <c r="BT11" s="1">
-        <v>22.947596</v>
+        <v>22.947596000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1620.210000</v>
+        <v>1620.21</v>
       </c>
       <c r="BV11" s="1">
-        <v>-825.278000</v>
+        <v>-825.27800000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>82622.127556</v>
+        <v>82622.127556000007</v>
       </c>
       <c r="BY11" s="1">
-        <v>22.950591</v>
+        <v>22.950590999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1772.520000</v>
+        <v>1772.52</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1094.270000</v>
+        <v>-1094.27</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>82633.980948</v>
+        <v>82633.980947999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>22.953884</v>
+        <v>22.953883999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2188.240000</v>
+        <v>2188.2399999999998</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1745.120000</v>
+        <v>-1745.12</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>82462.107789</v>
+        <v>82462.107789000002</v>
       </c>
       <c r="B12" s="1">
-        <v>22.906141</v>
+        <v>22.906141000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>1150.740000</v>
+        <v>1150.74</v>
       </c>
       <c r="D12" s="1">
-        <v>-260.273000</v>
+        <v>-260.27300000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>82472.490010</v>
+        <v>82472.490009999994</v>
       </c>
       <c r="G12" s="1">
         <v>22.909025</v>
       </c>
       <c r="H12" s="1">
-        <v>1171.920000</v>
+        <v>1171.92</v>
       </c>
       <c r="I12" s="1">
-        <v>-218.868000</v>
+        <v>-218.86799999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>82482.981885</v>
+        <v>82482.981885000001</v>
       </c>
       <c r="L12" s="1">
         <v>22.911939</v>
       </c>
       <c r="M12" s="1">
-        <v>1200.720000</v>
+        <v>1200.72</v>
       </c>
       <c r="N12" s="1">
-        <v>-152.691000</v>
+        <v>-152.691</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>82493.522367</v>
+        <v>82493.522366999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>22.914867</v>
+        <v>22.914867000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1208.850000</v>
+        <v>1208.8499999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-130.604000</v>
+        <v>-130.60400000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>82503.987489</v>
+        <v>82503.987489000006</v>
       </c>
       <c r="V12" s="1">
-        <v>22.917774</v>
+        <v>22.917774000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1216.480000</v>
+        <v>1216.48</v>
       </c>
       <c r="X12" s="1">
-        <v>-109.266000</v>
+        <v>-109.26600000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>82515.117218</v>
+        <v>82515.117217999999</v>
       </c>
       <c r="AA12" s="1">
         <v>22.920866</v>
       </c>
       <c r="AB12" s="1">
-        <v>1224.430000</v>
+        <v>1224.43</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.862100</v>
+        <v>-91.862099999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>82525.614020</v>
+        <v>82525.614019999994</v>
       </c>
       <c r="AF12" s="1">
-        <v>22.923782</v>
+        <v>22.923781999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1229.340000</v>
+        <v>1229.3399999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.978400</v>
+        <v>-86.978399999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>82535.796423</v>
+        <v>82535.796423000007</v>
       </c>
       <c r="AK12" s="1">
-        <v>22.926610</v>
+        <v>22.92661</v>
       </c>
       <c r="AL12" s="1">
-        <v>1236.430000</v>
+        <v>1236.43</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.869000</v>
+        <v>-89.869</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>82546.558584</v>
+        <v>82546.558583999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>22.929600</v>
+        <v>22.929600000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1244.300000</v>
+        <v>1244.3</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.425000</v>
+        <v>-101.425</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>82557.614905</v>
+        <v>82557.614904999995</v>
       </c>
       <c r="AU12" s="1">
-        <v>22.932671</v>
+        <v>22.932670999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1254.210000</v>
+        <v>1254.21</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.533000</v>
+        <v>-120.533</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>82568.980732</v>
+        <v>82568.980731999996</v>
       </c>
       <c r="AZ12" s="1">
-        <v>22.935828</v>
+        <v>22.935828000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1262.570000</v>
+        <v>1262.57</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.885000</v>
+        <v>-137.88499999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>82579.617932</v>
+        <v>82579.617931999994</v>
       </c>
       <c r="BE12" s="1">
-        <v>22.938783</v>
+        <v>22.938783000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1302.400000</v>
+        <v>1302.4000000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.542000</v>
+        <v>-219.542</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>82590.202062</v>
+        <v>82590.202061999997</v>
       </c>
       <c r="BJ12" s="1">
         <v>22.941723</v>
       </c>
       <c r="BK12" s="1">
-        <v>1372.070000</v>
+        <v>1372.07</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.678000</v>
+        <v>-355.678</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>82600.863073</v>
       </c>
       <c r="BO12" s="1">
-        <v>22.944684</v>
+        <v>22.944683999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1487.070000</v>
+        <v>1487.07</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.682000</v>
+        <v>-576.68200000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>82611.782530</v>
+        <v>82611.782529999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>22.947717</v>
+        <v>22.947717000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1620.280000</v>
+        <v>1620.28</v>
       </c>
       <c r="BV12" s="1">
-        <v>-825.345000</v>
+        <v>-825.34500000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>82622.543700</v>
+        <v>82622.543699999995</v>
       </c>
       <c r="BY12" s="1">
-        <v>22.950707</v>
+        <v>22.950707000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1772.630000</v>
+        <v>1772.63</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1094.400000</v>
+        <v>-1094.4000000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>82634.533492</v>
+        <v>82634.533492000002</v>
       </c>
       <c r="CD12" s="1">
         <v>22.954037</v>
       </c>
       <c r="CE12" s="1">
-        <v>2187.890000</v>
+        <v>2187.89</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1744.100000</v>
+        <v>-1744.1</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>82462.448535</v>
+        <v>82462.448535000003</v>
       </c>
       <c r="B13" s="1">
         <v>22.906236</v>
       </c>
       <c r="C13" s="1">
-        <v>1150.630000</v>
+        <v>1150.6300000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-260.061000</v>
+        <v>-260.06099999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>82472.835722</v>
+        <v>82472.835722000003</v>
       </c>
       <c r="G13" s="1">
-        <v>22.909121</v>
+        <v>22.909120999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1173.380000</v>
+        <v>1173.3800000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-218.904000</v>
+        <v>-218.904</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>82483.328092</v>
+        <v>82483.328091999996</v>
       </c>
       <c r="L13" s="1">
-        <v>22.912036</v>
+        <v>22.912036000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1200.520000</v>
+        <v>1200.52</v>
       </c>
       <c r="N13" s="1">
-        <v>-152.560000</v>
+        <v>-152.56</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>82493.877502</v>
+        <v>82493.877502000003</v>
       </c>
       <c r="Q13" s="1">
         <v>22.914966</v>
       </c>
       <c r="R13" s="1">
-        <v>1208.920000</v>
+        <v>1208.92</v>
       </c>
       <c r="S13" s="1">
-        <v>-130.555000</v>
+        <v>-130.55500000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>82504.677173</v>
+        <v>82504.677173000004</v>
       </c>
       <c r="V13" s="1">
         <v>22.917966</v>
       </c>
       <c r="W13" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-109.337000</v>
+        <v>-109.337</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>82515.468385</v>
@@ -3383,1223 +3799,1223 @@
         <v>22.920963</v>
       </c>
       <c r="AB13" s="1">
-        <v>1224.630000</v>
+        <v>1224.6300000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.780900</v>
+        <v>-91.780900000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>82525.958740</v>
+        <v>82525.958740000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>22.923877</v>
+        <v>22.923877000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1229.290000</v>
+        <v>1229.29</v>
       </c>
       <c r="AH13" s="1">
-        <v>-87.020900</v>
+        <v>-87.020899999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>82536.143621</v>
+        <v>82536.143620999996</v>
       </c>
       <c r="AK13" s="1">
         <v>22.926707</v>
       </c>
       <c r="AL13" s="1">
-        <v>1236.420000</v>
+        <v>1236.42</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.839500</v>
+        <v>-89.839500000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>82546.921162</v>
+        <v>82546.921161999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>22.929700</v>
+        <v>22.9297</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.451000</v>
+        <v>-101.45099999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>82558.290457</v>
+        <v>82558.290456999996</v>
       </c>
       <c r="AU13" s="1">
         <v>22.932858</v>
       </c>
       <c r="AV13" s="1">
-        <v>1254.200000</v>
+        <v>1254.2</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.530000</v>
+        <v>-120.53</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>82569.419690</v>
+        <v>82569.419689999995</v>
       </c>
       <c r="AZ13" s="1">
-        <v>22.935950</v>
+        <v>22.935949999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1262.550000</v>
+        <v>1262.55</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.855000</v>
+        <v>-137.85499999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>82580.052924</v>
+        <v>82580.052924000003</v>
       </c>
       <c r="BE13" s="1">
-        <v>22.938904</v>
+        <v>22.938904000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1302.420000</v>
+        <v>1302.42</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.542000</v>
+        <v>-219.542</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>82590.592910</v>
+        <v>82590.592910000007</v>
       </c>
       <c r="BJ13" s="1">
-        <v>22.941831</v>
+        <v>22.941831000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1372.060000</v>
+        <v>1372.06</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.657000</v>
+        <v>-355.65699999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>82601.293601</v>
+        <v>82601.293600999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>22.944804</v>
+        <v>22.944804000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1487.100000</v>
+        <v>1487.1</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.627000</v>
+        <v>-576.62699999999995</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>82612.193185</v>
+        <v>82612.193184999996</v>
       </c>
       <c r="BT13" s="1">
-        <v>22.947831</v>
+        <v>22.947831000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1620.190000</v>
+        <v>1620.19</v>
       </c>
       <c r="BV13" s="1">
-        <v>-825.394000</v>
+        <v>-825.39400000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>82622.991624</v>
+        <v>82622.991624000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>22.950831</v>
+        <v>22.950831000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1772.420000</v>
+        <v>1772.42</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1094.410000</v>
+        <v>-1094.4100000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>82635.061763</v>
+        <v>82635.061763000005</v>
       </c>
       <c r="CD13" s="1">
-        <v>22.954184</v>
+        <v>22.954184000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2188.530000</v>
+        <v>2188.5300000000002</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1746.020000</v>
+        <v>-1746.02</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>82462.789751</v>
+        <v>82462.789751000004</v>
       </c>
       <c r="B14" s="1">
-        <v>22.906330</v>
+        <v>22.906330000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1150.730000</v>
+        <v>1150.73</v>
       </c>
       <c r="D14" s="1">
-        <v>-260.192000</v>
+        <v>-260.19200000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>82473.179451</v>
+        <v>82473.179451000004</v>
       </c>
       <c r="G14" s="1">
-        <v>22.909217</v>
+        <v>22.909217000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>1172.190000</v>
+        <v>1172.19</v>
       </c>
       <c r="I14" s="1">
-        <v>-219.360000</v>
+        <v>-219.36</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>82484.021003</v>
+        <v>82484.021003000002</v>
       </c>
       <c r="L14" s="1">
-        <v>22.912228</v>
+        <v>22.912227999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1200.740000</v>
+        <v>1200.74</v>
       </c>
       <c r="N14" s="1">
-        <v>-152.651000</v>
+        <v>-152.65100000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>82494.570421</v>
+        <v>82494.570420999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>22.915158</v>
+        <v>22.915158000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>1208.910000</v>
+        <v>1208.9100000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-130.562000</v>
+        <v>-130.56200000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>82505.018143</v>
+        <v>82505.018142999994</v>
       </c>
       <c r="V14" s="1">
-        <v>22.918061</v>
+        <v>22.918061000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1216.600000</v>
+        <v>1216.5999999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-109.431000</v>
+        <v>-109.431</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>82515.817536</v>
+        <v>82515.817536000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>22.921060</v>
+        <v>22.921060000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1224.540000</v>
+        <v>1224.54</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.871500</v>
+        <v>-91.871499999999997</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>82526.298995</v>
+        <v>82526.298995000005</v>
       </c>
       <c r="AF14" s="1">
-        <v>22.923972</v>
+        <v>22.923971999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1229.350000</v>
+        <v>1229.3499999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.953800</v>
+        <v>-86.953800000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>82536.805749</v>
+        <v>82536.805749000006</v>
       </c>
       <c r="AK14" s="1">
-        <v>22.926890</v>
+        <v>22.92689</v>
       </c>
       <c r="AL14" s="1">
-        <v>1236.430000</v>
+        <v>1236.43</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.833500</v>
+        <v>-89.833500000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>82547.595255</v>
+        <v>82547.595254999993</v>
       </c>
       <c r="AP14" s="1">
-        <v>22.929888</v>
+        <v>22.929887999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.426000</v>
+        <v>-101.426</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>82558.741816</v>
+        <v>82558.741815999994</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.932984</v>
+        <v>22.932984000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1254.200000</v>
+        <v>1254.2</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.521000</v>
+        <v>-120.521</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>82569.778297</v>
+        <v>82569.778296999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>22.936050</v>
+        <v>22.936050000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1262.540000</v>
+        <v>1262.54</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.859000</v>
+        <v>-137.85900000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>82580.413019</v>
       </c>
       <c r="BE14" s="1">
-        <v>22.939004</v>
+        <v>22.939004000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1302.390000</v>
+        <v>1302.3900000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.573000</v>
+        <v>-219.57300000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>82590.965405</v>
+        <v>82590.965404999995</v>
       </c>
       <c r="BJ14" s="1">
-        <v>22.941935</v>
+        <v>22.941935000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1372.110000</v>
+        <v>1372.11</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.653000</v>
+        <v>-355.65300000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>82601.677007</v>
+        <v>82601.677007000006</v>
       </c>
       <c r="BO14" s="1">
-        <v>22.944910</v>
+        <v>22.94491</v>
       </c>
       <c r="BP14" s="1">
-        <v>1487.080000</v>
+        <v>1487.08</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.610000</v>
+        <v>-576.61</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>82612.625202</v>
+        <v>82612.625201999996</v>
       </c>
       <c r="BT14" s="1">
         <v>22.947951</v>
       </c>
       <c r="BU14" s="1">
-        <v>1620.180000</v>
+        <v>1620.18</v>
       </c>
       <c r="BV14" s="1">
-        <v>-825.442000</v>
+        <v>-825.44200000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>82623.413187</v>
+        <v>82623.413186999998</v>
       </c>
       <c r="BY14" s="1">
         <v>22.950948</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1772.380000</v>
+        <v>1772.38</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1094.530000</v>
+        <v>-1094.53</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>82635.585506</v>
+        <v>82635.585506000003</v>
       </c>
       <c r="CD14" s="1">
-        <v>22.954329</v>
+        <v>22.954329000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2188.230000</v>
+        <v>2188.23</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1745.280000</v>
+        <v>-1745.28</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>82463.473239</v>
+        <v>82463.473238999999</v>
       </c>
       <c r="B15" s="1">
-        <v>22.906520</v>
+        <v>22.90652</v>
       </c>
       <c r="C15" s="1">
-        <v>1150.870000</v>
+        <v>1150.8699999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-260.142000</v>
+        <v>-260.142</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>82473.868392</v>
+        <v>82473.868392000004</v>
       </c>
       <c r="G15" s="1">
-        <v>22.909408</v>
+        <v>22.909407999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1172.560000</v>
+        <v>1172.56</v>
       </c>
       <c r="I15" s="1">
-        <v>-218.136000</v>
+        <v>-218.136</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>82484.375642</v>
+        <v>82484.375641999999</v>
       </c>
       <c r="L15" s="1">
-        <v>22.912327</v>
+        <v>22.912327000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1200.730000</v>
+        <v>1200.73</v>
       </c>
       <c r="N15" s="1">
-        <v>-152.687000</v>
+        <v>-152.68700000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>82494.919100</v>
+        <v>82494.919099999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>22.915255</v>
+        <v>22.915254999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1208.900000</v>
+        <v>1208.9000000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-130.625000</v>
+        <v>-130.625</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>82505.362367</v>
+        <v>82505.362366999994</v>
       </c>
       <c r="V15" s="1">
         <v>22.918156</v>
       </c>
       <c r="W15" s="1">
-        <v>1216.790000</v>
+        <v>1216.79</v>
       </c>
       <c r="X15" s="1">
-        <v>-109.516000</v>
+        <v>-109.51600000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>82516.481185</v>
+        <v>82516.481184999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>22.921245</v>
+        <v>22.921244999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1224.550000</v>
+        <v>1224.55</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.837100</v>
+        <v>-91.837100000000007</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>82526.956690</v>
+        <v>82526.956690000006</v>
       </c>
       <c r="AF15" s="1">
-        <v>22.924155</v>
+        <v>22.924154999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1229.430000</v>
+        <v>1229.43</v>
       </c>
       <c r="AH15" s="1">
-        <v>-87.090200</v>
+        <v>-87.090199999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>82537.192133</v>
+        <v>82537.192133000004</v>
       </c>
       <c r="AK15" s="1">
-        <v>22.926998</v>
+        <v>22.926998000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1236.430000</v>
+        <v>1236.43</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.861800</v>
+        <v>-89.861800000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>82548.019798</v>
+        <v>82548.019797999994</v>
       </c>
       <c r="AP15" s="1">
-        <v>22.930005</v>
+        <v>22.930005000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1244.310000</v>
+        <v>1244.31</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.436000</v>
+        <v>-101.43600000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>82559.105879</v>
+        <v>82559.105878999995</v>
       </c>
       <c r="AU15" s="1">
-        <v>22.933085</v>
+        <v>22.933084999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>1254.190000</v>
+        <v>1254.19</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.542000</v>
+        <v>-120.542</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>82570.134426</v>
+        <v>82570.134426000004</v>
       </c>
       <c r="AZ15" s="1">
-        <v>22.936148</v>
+        <v>22.936147999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1262.550000</v>
+        <v>1262.55</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.857000</v>
+        <v>-137.857</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>82580.777579</v>
+        <v>82580.777579000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>22.939105</v>
+        <v>22.939105000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1302.390000</v>
+        <v>1302.3900000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.564000</v>
+        <v>-219.56399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>82591.402386</v>
+        <v>82591.402386000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>22.942056</v>
+        <v>22.942056000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1372.060000</v>
+        <v>1372.06</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.691000</v>
+        <v>-355.69099999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>82602.495903</v>
+        <v>82602.495903000003</v>
       </c>
       <c r="BO15" s="1">
         <v>22.945138</v>
       </c>
       <c r="BP15" s="1">
-        <v>1487.060000</v>
+        <v>1487.06</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.619000</v>
+        <v>-576.61900000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>82613.053286</v>
+        <v>82613.053285999995</v>
       </c>
       <c r="BT15" s="1">
-        <v>22.948070</v>
+        <v>22.948070000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1620.180000</v>
+        <v>1620.18</v>
       </c>
       <c r="BV15" s="1">
-        <v>-825.409000</v>
+        <v>-825.40899999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>82623.835778</v>
+        <v>82623.835777999993</v>
       </c>
       <c r="BY15" s="1">
         <v>22.951065</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1772.390000</v>
+        <v>1772.39</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1094.550000</v>
+        <v>-1094.55</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>82636.134081</v>
+        <v>82636.134080999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.954482</v>
+        <v>22.954481999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2188.560000</v>
+        <v>2188.56</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1743.610000</v>
+        <v>-1743.61</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>82463.818949</v>
+        <v>82463.818948999993</v>
       </c>
       <c r="B16" s="1">
         <v>22.906616</v>
       </c>
       <c r="C16" s="1">
-        <v>1150.650000</v>
+        <v>1150.6500000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-260.074000</v>
+        <v>-260.07400000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>82474.211625</v>
+        <v>82474.211624999996</v>
       </c>
       <c r="G16" s="1">
-        <v>22.909503</v>
+        <v>22.909503000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1172.390000</v>
+        <v>1172.3900000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-218.292000</v>
+        <v>-218.292</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>82484.719370</v>
+        <v>82484.719370000006</v>
       </c>
       <c r="L16" s="1">
-        <v>22.912422</v>
+        <v>22.912421999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1200.690000</v>
+        <v>1200.69</v>
       </c>
       <c r="N16" s="1">
-        <v>-152.682000</v>
+        <v>-152.68199999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>82495.268284</v>
+        <v>82495.268284000005</v>
       </c>
       <c r="Q16" s="1">
-        <v>22.915352</v>
+        <v>22.915351999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1208.920000</v>
+        <v>1208.92</v>
       </c>
       <c r="S16" s="1">
-        <v>-130.687000</v>
+        <v>-130.68700000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>82506.018575</v>
+        <v>82506.018574999995</v>
       </c>
       <c r="V16" s="1">
-        <v>22.918338</v>
+        <v>22.918337999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-109.543000</v>
+        <v>-109.54300000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>82516.852191</v>
+        <v>82516.852190999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>22.921348</v>
+        <v>22.921347999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1224.610000</v>
+        <v>1224.6099999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.829000</v>
+        <v>-91.828999999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>82527.332161</v>
+        <v>82527.332160999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>22.924259</v>
+        <v>22.924258999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1229.370000</v>
+        <v>1229.3699999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.990200</v>
+        <v>-86.990200000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>82537.537876</v>
+        <v>82537.537876000002</v>
       </c>
       <c r="AK16" s="1">
         <v>22.927094</v>
       </c>
       <c r="AL16" s="1">
-        <v>1236.430000</v>
+        <v>1236.43</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.841200</v>
+        <v>-89.841200000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>82548.377910</v>
+        <v>82548.377909999996</v>
       </c>
       <c r="AP16" s="1">
-        <v>22.930105</v>
+        <v>22.930105000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1244.330000</v>
+        <v>1244.33</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.433000</v>
+        <v>-101.43300000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>82559.472460</v>
+        <v>82559.472460000005</v>
       </c>
       <c r="AU16" s="1">
         <v>22.933187</v>
       </c>
       <c r="AV16" s="1">
-        <v>1254.180000</v>
+        <v>1254.18</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.508000</v>
+        <v>-120.508</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>82570.564457</v>
       </c>
       <c r="AZ16" s="1">
-        <v>22.936268</v>
+        <v>22.936267999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1262.540000</v>
+        <v>1262.54</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.885000</v>
+        <v>-137.88499999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>82581.210090</v>
+        <v>82581.210089999993</v>
       </c>
       <c r="BE16" s="1">
         <v>22.939225</v>
       </c>
       <c r="BF16" s="1">
-        <v>1302.410000</v>
+        <v>1302.4100000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.565000</v>
+        <v>-219.565</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>82591.715852</v>
+        <v>82591.715851999994</v>
       </c>
       <c r="BJ16" s="1">
-        <v>22.942143</v>
+        <v>22.942143000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1372.090000</v>
+        <v>1372.09</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.651000</v>
+        <v>-355.65100000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>82602.911550</v>
+        <v>82602.911550000004</v>
       </c>
       <c r="BO16" s="1">
-        <v>22.945253</v>
+        <v>22.945253000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1487.090000</v>
+        <v>1487.09</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.659000</v>
+        <v>-576.65899999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>82613.464431</v>
       </c>
       <c r="BT16" s="1">
-        <v>22.948185</v>
+        <v>22.948184999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1620.150000</v>
+        <v>1620.15</v>
       </c>
       <c r="BV16" s="1">
-        <v>-825.500000</v>
+        <v>-825.5</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>82624.285651</v>
+        <v>82624.285650999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>22.951190</v>
+        <v>22.95119</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1772.410000</v>
+        <v>1772.41</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1094.400000</v>
+        <v>-1094.4000000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>82636.663810</v>
+        <v>82636.663809999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>22.954629</v>
+        <v>22.954629000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2188.530000</v>
+        <v>2188.5300000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1745.530000</v>
+        <v>-1745.53</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>82464.160197</v>
+        <v>82464.160197000005</v>
       </c>
       <c r="B17" s="1">
-        <v>22.906711</v>
+        <v>22.906711000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1150.680000</v>
+        <v>1150.68</v>
       </c>
       <c r="D17" s="1">
-        <v>-260.120000</v>
+        <v>-260.12</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>82474.558824</v>
+        <v>82474.558824000007</v>
       </c>
       <c r="G17" s="1">
-        <v>22.909600</v>
+        <v>22.909600000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1173.090000</v>
+        <v>1173.0899999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-218.547000</v>
+        <v>-218.547</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>82485.387481</v>
+        <v>82485.387480999998</v>
       </c>
       <c r="L17" s="1">
-        <v>22.912608</v>
+        <v>22.912607999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1200.680000</v>
+        <v>1200.68</v>
       </c>
       <c r="N17" s="1">
-        <v>-152.782000</v>
+        <v>-152.78200000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>82495.900188</v>
       </c>
       <c r="Q17" s="1">
-        <v>22.915528</v>
+        <v>22.915527999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>1208.820000</v>
+        <v>1208.82</v>
       </c>
       <c r="S17" s="1">
-        <v>-130.599000</v>
+        <v>-130.59899999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>82506.392093</v>
+        <v>82506.392093000002</v>
       </c>
       <c r="V17" s="1">
-        <v>22.918442</v>
+        <v>22.918441999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1216.720000</v>
+        <v>1216.72</v>
       </c>
       <c r="X17" s="1">
-        <v>-109.392000</v>
+        <v>-109.392</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>82517.211328</v>
+        <v>82517.211328000005</v>
       </c>
       <c r="AA17" s="1">
-        <v>22.921448</v>
+        <v>22.921448000000002</v>
       </c>
       <c r="AB17" s="1">
-        <v>1224.500000</v>
+        <v>1224.5</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.719000</v>
+        <v>-91.718999999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>82527.674897</v>
+        <v>82527.674897000004</v>
       </c>
       <c r="AF17" s="1">
-        <v>22.924354</v>
+        <v>22.924354000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1229.290000</v>
+        <v>1229.29</v>
       </c>
       <c r="AH17" s="1">
-        <v>-87.044200</v>
+        <v>-87.044200000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>82537.887028</v>
+        <v>82537.887027999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>22.927191</v>
+        <v>22.927191000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1236.420000</v>
+        <v>1236.42</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.859500</v>
+        <v>-89.859499999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>82548.738997</v>
+        <v>82548.738996999993</v>
       </c>
       <c r="AP17" s="1">
-        <v>22.930205</v>
+        <v>22.930205000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1244.300000</v>
+        <v>1244.3</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.428000</v>
+        <v>-101.428</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>82559.883111</v>
+        <v>82559.883111000003</v>
       </c>
       <c r="AU17" s="1">
         <v>22.933301</v>
       </c>
       <c r="AV17" s="1">
-        <v>1254.180000</v>
+        <v>1254.18</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.524000</v>
+        <v>-120.524</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>82570.852136</v>
+        <v>82570.852136000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>22.936348</v>
+        <v>22.936347999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1262.530000</v>
+        <v>1262.53</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.875000</v>
+        <v>-137.875</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>82581.499755</v>
+        <v>82581.499754999997</v>
       </c>
       <c r="BE17" s="1">
-        <v>22.939305</v>
+        <v>22.939305000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1302.380000</v>
+        <v>1302.3800000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.527000</v>
+        <v>-219.52699999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>82592.090332</v>
+        <v>82592.090332000007</v>
       </c>
       <c r="BJ17" s="1">
-        <v>22.942247</v>
+        <v>22.942246999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1372.060000</v>
+        <v>1372.06</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.665000</v>
+        <v>-355.66500000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>82603.309343</v>
+        <v>82603.309343000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>22.945364</v>
+        <v>22.945364000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1487.070000</v>
+        <v>1487.07</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.631000</v>
+        <v>-576.63099999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>82613.896447</v>
+        <v>82613.896447000006</v>
       </c>
       <c r="BT17" s="1">
-        <v>22.948305</v>
+        <v>22.948305000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1620.040000</v>
+        <v>1620.04</v>
       </c>
       <c r="BV17" s="1">
-        <v>-825.526000</v>
+        <v>-825.52599999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>82624.716672</v>
+        <v>82624.716671999995</v>
       </c>
       <c r="BY17" s="1">
-        <v>22.951310</v>
+        <v>22.951309999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1772.430000</v>
+        <v>1772.43</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1094.480000</v>
+        <v>-1094.48</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>82637.179152</v>
+        <v>82637.179151999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>22.954772</v>
+        <v>22.954771999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>2190.240000</v>
+        <v>2190.2399999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1745.650000</v>
+        <v>-1745.65</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>82464.811941</v>
+        <v>82464.811941000007</v>
       </c>
       <c r="B18" s="1">
-        <v>22.906892</v>
+        <v>22.906891999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1150.560000</v>
+        <v>1150.56</v>
       </c>
       <c r="D18" s="1">
-        <v>-260.289000</v>
+        <v>-260.28899999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>82475.215031</v>
@@ -4608,769 +5024,769 @@
         <v>22.909782</v>
       </c>
       <c r="H18" s="1">
-        <v>1171.930000</v>
+        <v>1171.93</v>
       </c>
       <c r="I18" s="1">
-        <v>-219.368000</v>
+        <v>-219.36799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>82485.756505</v>
+        <v>82485.756504999998</v>
       </c>
       <c r="L18" s="1">
-        <v>22.912710</v>
+        <v>22.912710000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1200.570000</v>
+        <v>1200.57</v>
       </c>
       <c r="N18" s="1">
-        <v>-152.700000</v>
+        <v>-152.69999999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>82496.315370</v>
+        <v>82496.315369999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>22.915643</v>
+        <v>22.915642999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1208.900000</v>
+        <v>1208.9000000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-130.501000</v>
+        <v>-130.501</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>82506.737277</v>
+        <v>82506.737276999993</v>
       </c>
       <c r="V18" s="1">
-        <v>22.918538</v>
+        <v>22.918538000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>1216.770000</v>
+        <v>1216.77</v>
       </c>
       <c r="X18" s="1">
-        <v>-109.454000</v>
+        <v>-109.45399999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>82517.560493</v>
+        <v>82517.560492999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>22.921545</v>
+        <v>22.921544999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1224.450000</v>
+        <v>1224.45</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.740000</v>
+        <v>-91.74</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>82528.023088</v>
+        <v>82528.023088000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>22.924451</v>
+        <v>22.924451000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1229.420000</v>
+        <v>1229.42</v>
       </c>
       <c r="AH18" s="1">
-        <v>-87.077400</v>
+        <v>-87.077399999999997</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>82538.304163</v>
+        <v>82538.304162999993</v>
       </c>
       <c r="AK18" s="1">
-        <v>22.927307</v>
+        <v>22.927306999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1236.430000</v>
+        <v>1236.43</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.811100</v>
+        <v>-89.811099999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>82549.459685</v>
+        <v>82549.459684999994</v>
       </c>
       <c r="AP18" s="1">
         <v>22.930405</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1244.300000</v>
+        <v>1244.3</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.417000</v>
+        <v>-101.417</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>82560.202534</v>
+        <v>82560.202533999996</v>
       </c>
       <c r="AU18" s="1">
-        <v>22.933390</v>
+        <v>22.933389999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1254.200000</v>
+        <v>1254.2</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.515000</v>
+        <v>-120.515</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>82571.211239</v>
+        <v>82571.211238999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>22.936448</v>
+        <v>22.936447999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1262.560000</v>
+        <v>1262.56</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.854000</v>
+        <v>-137.85400000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>82581.861338</v>
+        <v>82581.861338000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>22.939406</v>
+        <v>22.939406000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1302.400000</v>
+        <v>1302.4000000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.533000</v>
+        <v>-219.53299999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>82592.491099</v>
+        <v>82592.491099000006</v>
       </c>
       <c r="BJ18" s="1">
         <v>22.942359</v>
       </c>
       <c r="BK18" s="1">
-        <v>1372.060000</v>
+        <v>1372.06</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.662000</v>
+        <v>-355.66199999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>82603.729963</v>
+        <v>82603.729963000005</v>
       </c>
       <c r="BO18" s="1">
-        <v>22.945481</v>
+        <v>22.945481000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1487.080000</v>
+        <v>1487.08</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.615000</v>
+        <v>-576.61500000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>82614.324992</v>
+        <v>82614.324991999994</v>
       </c>
       <c r="BT18" s="1">
-        <v>22.948424</v>
+        <v>22.948423999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1620.020000</v>
+        <v>1620.02</v>
       </c>
       <c r="BV18" s="1">
-        <v>-825.576000</v>
+        <v>-825.57600000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>82625.139798</v>
+        <v>82625.139798000004</v>
       </c>
       <c r="BY18" s="1">
         <v>22.951428</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1772.550000</v>
+        <v>1772.55</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1094.380000</v>
+        <v>-1094.3800000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>82637.699985</v>
+        <v>82637.699984999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>22.954917</v>
+        <v>22.954916999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>2189.600000</v>
+        <v>2189.6</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1744.020000</v>
+        <v>-1744.02</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>82465.185429</v>
+        <v>82465.185429000005</v>
       </c>
       <c r="B19" s="1">
-        <v>22.906996</v>
+        <v>22.906995999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1150.760000</v>
+        <v>1150.76</v>
       </c>
       <c r="D19" s="1">
-        <v>-260.217000</v>
+        <v>-260.21699999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>82475.592982</v>
+        <v>82475.592982000002</v>
       </c>
       <c r="G19" s="1">
-        <v>22.909887</v>
+        <v>22.909887000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1172.600000</v>
+        <v>1172.5999999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-219.126000</v>
+        <v>-219.126</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>82486.101720</v>
+        <v>82486.101720000006</v>
       </c>
       <c r="L19" s="1">
         <v>22.912806</v>
       </c>
       <c r="M19" s="1">
-        <v>1200.640000</v>
+        <v>1200.6400000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-152.913000</v>
+        <v>-152.91300000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>82496.664026</v>
+        <v>82496.664025999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>22.915740</v>
+        <v>22.91574</v>
       </c>
       <c r="R19" s="1">
-        <v>1208.940000</v>
+        <v>1208.94</v>
       </c>
       <c r="S19" s="1">
-        <v>-130.534000</v>
+        <v>-130.53399999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>82507.087948</v>
       </c>
       <c r="V19" s="1">
-        <v>22.918636</v>
+        <v>22.918635999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1216.620000</v>
+        <v>1216.6199999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-109.493000</v>
+        <v>-109.49299999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>82517.984095</v>
+        <v>82517.984095000007</v>
       </c>
       <c r="AA19" s="1">
-        <v>22.921662</v>
+        <v>22.921662000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1224.450000</v>
+        <v>1224.45</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.924800</v>
+        <v>-91.924800000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>82528.443697</v>
+        <v>82528.443696999995</v>
       </c>
       <c r="AF19" s="1">
-        <v>22.924568</v>
+        <v>22.924568000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1229.280000</v>
+        <v>1229.28</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.959300</v>
+        <v>-86.959299999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>82538.597299</v>
+        <v>82538.597299000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>22.927388</v>
+        <v>22.927388000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1236.430000</v>
+        <v>1236.43</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.831000</v>
+        <v>-89.831000000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>82549.818798</v>
+        <v>82549.818797999993</v>
       </c>
       <c r="AP19" s="1">
         <v>22.930505</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.439000</v>
+        <v>-101.43899999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>82560.565110</v>
+        <v>82560.565109999996</v>
       </c>
       <c r="AU19" s="1">
-        <v>22.933490</v>
+        <v>22.933489999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1254.200000</v>
+        <v>1254.2</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.517000</v>
+        <v>-120.517</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>82571.569352</v>
+        <v>82571.569352000006</v>
       </c>
       <c r="AZ19" s="1">
-        <v>22.936547</v>
+        <v>22.936547000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1262.540000</v>
+        <v>1262.54</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.876000</v>
+        <v>-137.876</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>82582.223455</v>
+        <v>82582.223454999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>22.939507</v>
+        <v>22.939506999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1302.380000</v>
+        <v>1302.3800000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.555000</v>
+        <v>-219.55500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>82593.239066</v>
+        <v>82593.239065999995</v>
       </c>
       <c r="BJ19" s="1">
-        <v>22.942566</v>
+        <v>22.942565999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1372.080000</v>
+        <v>1372.08</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.662000</v>
+        <v>-355.66199999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>82604.124801</v>
+        <v>82604.124800999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>22.945590</v>
+        <v>22.945589999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1487.080000</v>
+        <v>1487.08</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.564000</v>
+        <v>-576.56399999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>82614.734718</v>
+        <v>82614.734718000007</v>
       </c>
       <c r="BT19" s="1">
-        <v>22.948537</v>
+        <v>22.948537000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1619.910000</v>
+        <v>1619.91</v>
       </c>
       <c r="BV19" s="1">
-        <v>-825.619000</v>
+        <v>-825.61900000000003</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>82625.558880</v>
+        <v>82625.558879999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>22.951544</v>
+        <v>22.951543999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1772.600000</v>
+        <v>1772.6</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1094.470000</v>
+        <v>-1094.47</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>82638.533727</v>
+        <v>82638.533727000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>22.955148</v>
+        <v>22.955148000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2187.630000</v>
+        <v>2187.63</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1744.610000</v>
+        <v>-1744.61</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>82465.529155</v>
+        <v>82465.529154999997</v>
       </c>
       <c r="B20" s="1">
-        <v>22.907091</v>
+        <v>22.907091000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1150.670000</v>
+        <v>1150.67</v>
       </c>
       <c r="D20" s="1">
-        <v>-260.151000</v>
+        <v>-260.15100000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>82475.937701</v>
+        <v>82475.937701000003</v>
       </c>
       <c r="G20" s="1">
         <v>22.909983</v>
       </c>
       <c r="H20" s="1">
-        <v>1172.200000</v>
+        <v>1172.2</v>
       </c>
       <c r="I20" s="1">
-        <v>-218.042000</v>
+        <v>-218.042</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>82486.449416</v>
+        <v>82486.449416000003</v>
       </c>
       <c r="L20" s="1">
         <v>22.912903</v>
       </c>
       <c r="M20" s="1">
-        <v>1200.720000</v>
+        <v>1200.72</v>
       </c>
       <c r="N20" s="1">
-        <v>-152.672000</v>
+        <v>-152.672</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>82497.082154</v>
+        <v>82497.082154000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>22.915856</v>
+        <v>22.915856000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>1208.920000</v>
+        <v>1208.92</v>
       </c>
       <c r="S20" s="1">
-        <v>-130.579000</v>
+        <v>-130.57900000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>82507.512525</v>
+        <v>82507.512524999998</v>
       </c>
       <c r="V20" s="1">
-        <v>22.918753</v>
+        <v>22.918752999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1216.630000</v>
+        <v>1216.6300000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-109.340000</v>
+        <v>-109.34</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>82518.257389</v>
+        <v>82518.257389000006</v>
       </c>
       <c r="AA20" s="1">
-        <v>22.921738</v>
+        <v>22.921738000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1224.450000</v>
+        <v>1224.45</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.871200</v>
+        <v>-91.871200000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>82528.725101</v>
+        <v>82528.725101000004</v>
       </c>
       <c r="AF20" s="1">
-        <v>22.924646</v>
+        <v>22.924645999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1229.230000</v>
+        <v>1229.23</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.932600</v>
+        <v>-86.932599999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>82538.944498</v>
+        <v>82538.944497999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>22.927485</v>
+        <v>22.927485000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1236.420000</v>
+        <v>1236.42</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.845000</v>
+        <v>-89.844999999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>82550.179908</v>
+        <v>82550.179908000006</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.930606</v>
+        <v>22.930606000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1244.330000</v>
+        <v>1244.33</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.432000</v>
+        <v>-101.432</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>82560.928714</v>
+        <v>82560.928713999994</v>
       </c>
       <c r="AU20" s="1">
         <v>22.933591</v>
       </c>
       <c r="AV20" s="1">
-        <v>1254.180000</v>
+        <v>1254.18</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.506000</v>
+        <v>-120.506</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>82572.289542</v>
+        <v>82572.289541999999</v>
       </c>
       <c r="AZ20" s="1">
         <v>22.936747</v>
       </c>
       <c r="BA20" s="1">
-        <v>1262.530000</v>
+        <v>1262.53</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.868000</v>
+        <v>-137.86799999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>82582.941656</v>
+        <v>82582.941655999995</v>
       </c>
       <c r="BE20" s="1">
-        <v>22.939706</v>
+        <v>22.939706000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1302.400000</v>
+        <v>1302.4000000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.558000</v>
+        <v>-219.55799999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>82593.641818</v>
+        <v>82593.641818000004</v>
       </c>
       <c r="BJ20" s="1">
-        <v>22.942678</v>
+        <v>22.942678000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1372.080000</v>
+        <v>1372.08</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.683000</v>
+        <v>-355.68299999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>82604.547388</v>
+        <v>82604.547388000006</v>
       </c>
       <c r="BO20" s="1">
         <v>22.945708</v>
       </c>
       <c r="BP20" s="1">
-        <v>1487.020000</v>
+        <v>1487.02</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.621000</v>
+        <v>-576.62099999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>82615.167693</v>
+        <v>82615.167692999996</v>
       </c>
       <c r="BT20" s="1">
-        <v>22.948658</v>
+        <v>22.948658000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>1619.910000</v>
+        <v>1619.91</v>
       </c>
       <c r="BV20" s="1">
-        <v>-825.626000</v>
+        <v>-825.62599999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>82626.298911</v>
+        <v>82626.298911000005</v>
       </c>
       <c r="BY20" s="1">
-        <v>22.951750</v>
+        <v>22.951750000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1772.430000</v>
+        <v>1772.43</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1094.300000</v>
+        <v>-1094.3</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>82638.736590</v>
+        <v>82638.73659</v>
       </c>
       <c r="CD20" s="1">
-        <v>22.955205</v>
+        <v>22.955204999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2189.120000</v>
+        <v>2189.12</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1746.300000</v>
+        <v>-1746.3</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>82465.867459</v>
+        <v>82465.867459000001</v>
       </c>
       <c r="B21" s="1">
-        <v>22.907185</v>
+        <v>22.907184999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>1150.760000</v>
+        <v>1150.76</v>
       </c>
       <c r="D21" s="1">
-        <v>-260.163000</v>
+        <v>-260.16300000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>82476.285397</v>
@@ -5379,1328 +5795,1328 @@
         <v>22.910079</v>
       </c>
       <c r="H21" s="1">
-        <v>1172.450000</v>
+        <v>1172.45</v>
       </c>
       <c r="I21" s="1">
-        <v>-219.035000</v>
+        <v>-219.035</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>82486.877968</v>
+        <v>82486.877968000001</v>
       </c>
       <c r="L21" s="1">
-        <v>22.913022</v>
+        <v>22.913022000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>1200.820000</v>
+        <v>1200.82</v>
       </c>
       <c r="N21" s="1">
-        <v>-152.502000</v>
+        <v>-152.50200000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>82497.360424</v>
+        <v>82497.360423999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>22.915933</v>
+        <v>22.915932999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1208.910000</v>
+        <v>1208.9100000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-130.576000</v>
+        <v>-130.57599999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>82507.789787</v>
+        <v>82507.789787000002</v>
       </c>
       <c r="V21" s="1">
-        <v>22.918830</v>
+        <v>22.91883</v>
       </c>
       <c r="W21" s="1">
-        <v>1216.600000</v>
+        <v>1216.5999999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-109.395000</v>
+        <v>-109.395</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>82518.607565</v>
+        <v>82518.607564999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>22.921835</v>
+        <v>22.921835000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>1224.290000</v>
+        <v>1224.29</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.914100</v>
+        <v>-91.914100000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>82529.069649</v>
+        <v>82529.069648999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>22.924742</v>
+        <v>22.924741999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.951200</v>
+        <v>-86.9512</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>82539.294675</v>
+        <v>82539.294674999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>22.927582</v>
+        <v>22.927582000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1236.430000</v>
+        <v>1236.43</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.833800</v>
+        <v>-89.833799999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>82550.906515</v>
+        <v>82550.906514999995</v>
       </c>
       <c r="AP21" s="1">
-        <v>22.930807</v>
+        <v>22.930807000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1244.330000</v>
+        <v>1244.33</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.435000</v>
+        <v>-101.435</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>82561.659284</v>
+        <v>82561.659283999994</v>
       </c>
       <c r="AU21" s="1">
-        <v>22.933794</v>
+        <v>22.933793999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1254.210000</v>
+        <v>1254.21</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.500000</v>
+        <v>-120.5</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>82572.648149</v>
+        <v>82572.648149000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>22.936847</v>
       </c>
       <c r="BA21" s="1">
-        <v>1262.530000</v>
+        <v>1262.53</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.858000</v>
+        <v>-137.858</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>82583.538807</v>
+        <v>82583.538807000004</v>
       </c>
       <c r="BE21" s="1">
-        <v>22.939872</v>
+        <v>22.939872000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1302.410000</v>
+        <v>1302.4100000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.573000</v>
+        <v>-219.57300000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>82594.020267</v>
       </c>
       <c r="BJ21" s="1">
-        <v>22.942783</v>
+        <v>22.942782999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1372.100000</v>
+        <v>1372.1</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.665000</v>
+        <v>-355.66500000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>82605.266556</v>
+        <v>82605.266556000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>22.945907</v>
+        <v>22.945906999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1487.110000</v>
+        <v>1487.11</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.631000</v>
+        <v>-576.63099999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>82615.906236</v>
+        <v>82615.906235999995</v>
       </c>
       <c r="BT21" s="1">
-        <v>22.948863</v>
+        <v>22.948862999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1619.770000</v>
+        <v>1619.77</v>
       </c>
       <c r="BV21" s="1">
-        <v>-825.612000</v>
+        <v>-825.61199999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>82626.425391</v>
+        <v>82626.425390999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>22.951785</v>
+        <v>22.951785000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1772.510000</v>
+        <v>1772.51</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1094.430000</v>
+        <v>-1094.43</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>82639.255407</v>
+        <v>82639.255407000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>22.955349</v>
+        <v>22.955348999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>2188.540000</v>
+        <v>2188.54</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1746.010000</v>
+        <v>-1746.01</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>82466.297458</v>
+        <v>82466.297458000001</v>
       </c>
       <c r="B22" s="1">
-        <v>22.907305</v>
+        <v>22.907305000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1150.720000</v>
+        <v>1150.72</v>
       </c>
       <c r="D22" s="1">
-        <v>-260.281000</v>
+        <v>-260.28100000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>82476.719397</v>
+        <v>82476.719396999993</v>
       </c>
       <c r="G22" s="1">
-        <v>22.910200</v>
+        <v>22.9102</v>
       </c>
       <c r="H22" s="1">
-        <v>1172.230000</v>
+        <v>1172.23</v>
       </c>
       <c r="I22" s="1">
-        <v>-218.420000</v>
+        <v>-218.42</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>82487.154758</v>
+        <v>82487.154758000004</v>
       </c>
       <c r="L22" s="1">
-        <v>22.913099</v>
+        <v>22.913098999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1200.700000</v>
+        <v>1200.7</v>
       </c>
       <c r="N22" s="1">
-        <v>-152.829000</v>
+        <v>-152.82900000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>82497.709593</v>
+        <v>82497.709593000007</v>
       </c>
       <c r="Q22" s="1">
-        <v>22.916030</v>
+        <v>22.916029999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1208.860000</v>
+        <v>1208.8599999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-130.643000</v>
+        <v>-130.643</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>82508.133546</v>
+        <v>82508.133545999997</v>
       </c>
       <c r="V22" s="1">
-        <v>22.918926</v>
+        <v>22.918925999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1216.580000</v>
+        <v>1216.58</v>
       </c>
       <c r="X22" s="1">
-        <v>-109.432000</v>
+        <v>-109.432</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>82518.955228</v>
+        <v>82518.955228000006</v>
       </c>
       <c r="AA22" s="1">
-        <v>22.921932</v>
+        <v>22.921932000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>1224.430000</v>
+        <v>1224.43</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.851900</v>
+        <v>-91.851900000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>82529.414864</v>
+        <v>82529.414864000006</v>
       </c>
       <c r="AF22" s="1">
         <v>22.924837</v>
       </c>
       <c r="AG22" s="1">
-        <v>1229.010000</v>
+        <v>1229.01</v>
       </c>
       <c r="AH22" s="1">
-        <v>-87.206600</v>
+        <v>-87.206599999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>82539.990853</v>
+        <v>82539.990852999996</v>
       </c>
       <c r="AK22" s="1">
         <v>22.927775</v>
       </c>
       <c r="AL22" s="1">
-        <v>1236.420000</v>
+        <v>1236.42</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.825000</v>
+        <v>-89.825000000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>82551.283970</v>
+        <v>82551.283970000004</v>
       </c>
       <c r="AP22" s="1">
-        <v>22.930912</v>
+        <v>22.930911999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1244.310000</v>
+        <v>1244.31</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.433000</v>
+        <v>-101.43300000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>82562.047684</v>
+        <v>82562.047684000005</v>
       </c>
       <c r="AU22" s="1">
         <v>22.933902</v>
       </c>
       <c r="AV22" s="1">
-        <v>1254.180000</v>
+        <v>1254.18</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.510000</v>
+        <v>-120.51</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>82573.007782</v>
+        <v>82573.007782000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>22.936947</v>
       </c>
       <c r="BA22" s="1">
-        <v>1262.510000</v>
+        <v>1262.51</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.859000</v>
+        <v>-137.85900000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>82583.725303</v>
+        <v>82583.725302999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>22.939924</v>
+        <v>22.939924000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1302.400000</v>
+        <v>1302.4000000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.541000</v>
+        <v>-219.541</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>82594.710698</v>
+        <v>82594.710697999995</v>
       </c>
       <c r="BJ22" s="1">
-        <v>22.942975</v>
+        <v>22.942975000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1372.080000</v>
+        <v>1372.08</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.676000</v>
+        <v>-355.67599999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>82605.377162</v>
+        <v>82605.377162000004</v>
       </c>
       <c r="BO22" s="1">
-        <v>22.945938</v>
+        <v>22.945938000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1487.020000</v>
+        <v>1487.02</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.626000</v>
+        <v>-576.62599999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>82616.037676</v>
+        <v>82616.037676000007</v>
       </c>
       <c r="BT22" s="1">
-        <v>22.948899</v>
+        <v>22.948899000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1619.780000</v>
+        <v>1619.78</v>
       </c>
       <c r="BV22" s="1">
-        <v>-825.515000</v>
+        <v>-825.51499999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>82626.836606</v>
+        <v>82626.836605999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>22.951899</v>
+        <v>22.951899000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1772.430000</v>
+        <v>1772.43</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1094.420000</v>
+        <v>-1094.42</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>82639.805965</v>
+        <v>82639.805965000007</v>
       </c>
       <c r="CD22" s="1">
-        <v>22.955502</v>
+        <v>22.955501999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2187.940000</v>
+        <v>2187.94</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1745.230000</v>
+        <v>-1745.23</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>82466.567282</v>
+        <v>82466.567282000004</v>
       </c>
       <c r="B23" s="1">
-        <v>22.907380</v>
+        <v>22.90738</v>
       </c>
       <c r="C23" s="1">
-        <v>1150.870000</v>
+        <v>1150.8699999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-260.096000</v>
+        <v>-260.096</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>82476.978308</v>
+        <v>82476.978308000005</v>
       </c>
       <c r="G23" s="1">
-        <v>22.910272</v>
+        <v>22.910271999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1172.530000</v>
+        <v>1172.53</v>
       </c>
       <c r="I23" s="1">
-        <v>-219.423000</v>
+        <v>-219.423</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>82487.500470</v>
+        <v>82487.500469999999</v>
       </c>
       <c r="L23" s="1">
-        <v>22.913195</v>
+        <v>22.913195000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>1200.820000</v>
+        <v>1200.82</v>
       </c>
       <c r="N23" s="1">
-        <v>-152.733000</v>
+        <v>-152.733</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>82498.059272</v>
+        <v>82498.059271999999</v>
       </c>
       <c r="Q23" s="1">
         <v>22.916128</v>
       </c>
       <c r="R23" s="1">
-        <v>1208.880000</v>
+        <v>1208.8800000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-130.558000</v>
+        <v>-130.55799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>82508.476747</v>
+        <v>82508.476746999993</v>
       </c>
       <c r="V23" s="1">
-        <v>22.919021</v>
+        <v>22.919021000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1216.720000</v>
+        <v>1216.72</v>
       </c>
       <c r="X23" s="1">
-        <v>-109.424000</v>
+        <v>-109.42400000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>82519.647644</v>
+        <v>82519.647643999997</v>
       </c>
       <c r="AA23" s="1">
         <v>22.922124</v>
       </c>
       <c r="AB23" s="1">
-        <v>1224.550000</v>
+        <v>1224.55</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.841200</v>
+        <v>-91.841200000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>82530.102814</v>
+        <v>82530.102813999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>22.925029</v>
+        <v>22.925028999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1229.310000</v>
+        <v>1229.31</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.932600</v>
+        <v>-86.932599999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>82540.341765</v>
+        <v>82540.341765000005</v>
       </c>
       <c r="AK23" s="1">
-        <v>22.927873</v>
+        <v>22.927873000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>1236.440000</v>
+        <v>1236.44</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.827300</v>
+        <v>-89.827299999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>82551.645057</v>
+        <v>82551.645057000002</v>
       </c>
       <c r="AP23" s="1">
         <v>22.931013</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.432000</v>
+        <v>-101.432</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>82562.413732</v>
+        <v>82562.413732000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>22.934004</v>
+        <v>22.934004000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>1254.170000</v>
+        <v>1254.17</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.491000</v>
+        <v>-120.491</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>82573.677845</v>
+        <v>82573.677844999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>22.937133</v>
+        <v>22.937132999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1262.550000</v>
+        <v>1262.55</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.893000</v>
+        <v>-137.893</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>82584.154343</v>
+        <v>82584.154343000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>22.940043</v>
+        <v>22.940042999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1302.380000</v>
+        <v>1302.3800000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.570000</v>
+        <v>-219.57</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>82595.175944</v>
+        <v>82595.175944000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>22.943104</v>
+        <v>22.943104000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1372.080000</v>
+        <v>1372.08</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.645000</v>
+        <v>-355.64499999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>82605.788874</v>
+        <v>82605.788874000005</v>
       </c>
       <c r="BO23" s="1">
-        <v>22.946052</v>
+        <v>22.946052000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1487.000000</v>
+        <v>1487</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.652000</v>
+        <v>-576.65200000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>82616.446876</v>
+        <v>82616.446876000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>22.949013</v>
+        <v>22.949013000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1619.820000</v>
+        <v>1619.82</v>
       </c>
       <c r="BV23" s="1">
-        <v>-825.690000</v>
+        <v>-825.69</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>82627.296894</v>
+        <v>82627.296893999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>22.952027</v>
+        <v>22.952027000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1772.320000</v>
+        <v>1772.32</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1094.360000</v>
+        <v>-1094.3599999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>82640.333708</v>
+        <v>82640.333708000006</v>
       </c>
       <c r="CD23" s="1">
         <v>22.955648</v>
       </c>
       <c r="CE23" s="1">
-        <v>2189.590000</v>
+        <v>2189.59</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1746.090000</v>
+        <v>-1746.09</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>82466.911505</v>
+        <v>82466.911504999996</v>
       </c>
       <c r="B24" s="1">
-        <v>22.907475</v>
+        <v>22.907475000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>1150.630000</v>
+        <v>1150.6300000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-260.012000</v>
+        <v>-260.012</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>82477.321085</v>
+        <v>82477.321085000003</v>
       </c>
       <c r="G24" s="1">
-        <v>22.910367</v>
+        <v>22.910367000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1171.710000</v>
+        <v>1171.71</v>
       </c>
       <c r="I24" s="1">
-        <v>-218.987000</v>
+        <v>-218.98699999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>82487.845654</v>
+        <v>82487.845654000004</v>
       </c>
       <c r="L24" s="1">
-        <v>22.913290</v>
+        <v>22.91329</v>
       </c>
       <c r="M24" s="1">
-        <v>1200.770000</v>
+        <v>1200.77</v>
       </c>
       <c r="N24" s="1">
-        <v>-152.615000</v>
+        <v>-152.61500000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>82498.757673</v>
       </c>
       <c r="Q24" s="1">
-        <v>22.916322</v>
+        <v>22.916322000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1208.930000</v>
+        <v>1208.93</v>
       </c>
       <c r="S24" s="1">
-        <v>-130.533000</v>
+        <v>-130.53299999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>82509.162715</v>
+        <v>82509.162714999999</v>
       </c>
       <c r="V24" s="1">
-        <v>22.919212</v>
+        <v>22.919212000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>1216.670000</v>
+        <v>1216.67</v>
       </c>
       <c r="X24" s="1">
-        <v>-109.333000</v>
+        <v>-109.333</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>82520.000299</v>
+        <v>82520.000299000007</v>
       </c>
       <c r="AA24" s="1">
-        <v>22.922222</v>
+        <v>22.922222000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1224.520000</v>
+        <v>1224.52</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.893500</v>
+        <v>-91.893500000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>82530.464894</v>
+        <v>82530.464894000004</v>
       </c>
       <c r="AF24" s="1">
-        <v>22.925129</v>
+        <v>22.925128999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1229.250000</v>
+        <v>1229.25</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.973300</v>
+        <v>-86.973299999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>82540.687936</v>
+        <v>82540.687936000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>22.927969</v>
+        <v>22.927969000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1236.390000</v>
+        <v>1236.3900000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.837900</v>
+        <v>-89.837900000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>82552.319616</v>
+        <v>82552.319615999993</v>
       </c>
       <c r="AP24" s="1">
-        <v>22.931200</v>
+        <v>22.9312</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1244.310000</v>
+        <v>1244.31</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.450000</v>
+        <v>-101.45</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>82563.091767</v>
+        <v>82563.091767000005</v>
       </c>
       <c r="AU24" s="1">
-        <v>22.934192</v>
+        <v>22.934191999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1254.190000</v>
+        <v>1254.19</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.517000</v>
+        <v>-120.517</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>82574.115321</v>
+        <v>82574.115321000005</v>
       </c>
       <c r="AZ24" s="1">
-        <v>22.937254</v>
+        <v>22.937253999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1262.540000</v>
+        <v>1262.54</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.850000</v>
+        <v>-137.85</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>82584.429654</v>
+        <v>82584.429654000007</v>
       </c>
       <c r="BE24" s="1">
-        <v>22.940119</v>
+        <v>22.940118999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1302.400000</v>
+        <v>1302.4000000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.577000</v>
+        <v>-219.577</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>82595.564807</v>
+        <v>82595.564807000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>22.943212</v>
+        <v>22.943211999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1372.100000</v>
+        <v>1372.1</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.694000</v>
+        <v>-355.69400000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>82606.185145</v>
+        <v>82606.185144999996</v>
       </c>
       <c r="BO24" s="1">
-        <v>22.946163</v>
+        <v>22.946162999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1487.080000</v>
+        <v>1487.08</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.575000</v>
+        <v>-576.57500000000005</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>82616.877899</v>
+        <v>82616.877898999999</v>
       </c>
       <c r="BT24" s="1">
         <v>22.949133</v>
       </c>
       <c r="BU24" s="1">
-        <v>1619.710000</v>
+        <v>1619.71</v>
       </c>
       <c r="BV24" s="1">
-        <v>-825.616000</v>
+        <v>-825.61599999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>82627.741277</v>
+        <v>82627.741276999994</v>
       </c>
       <c r="BY24" s="1">
-        <v>22.952150</v>
+        <v>22.95215</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1772.440000</v>
+        <v>1772.44</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1094.390000</v>
+        <v>-1094.3900000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>82640.852037</v>
+        <v>82640.852037000004</v>
       </c>
       <c r="CD24" s="1">
-        <v>22.955792</v>
+        <v>22.955791999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2188.500000</v>
+        <v>2188.5</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1746.190000</v>
+        <v>-1746.19</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>82467.253249</v>
+        <v>82467.253249000001</v>
       </c>
       <c r="B25" s="1">
-        <v>22.907570</v>
+        <v>22.90757</v>
       </c>
       <c r="C25" s="1">
-        <v>1150.590000</v>
+        <v>1150.5899999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-260.464000</v>
+        <v>-260.464</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>82477.670723</v>
+        <v>82477.670723000003</v>
       </c>
       <c r="G25" s="1">
-        <v>22.910464</v>
+        <v>22.910464000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1172.410000</v>
+        <v>1172.4100000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-218.087000</v>
+        <v>-218.08699999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>82488.539558</v>
+        <v>82488.539558000004</v>
       </c>
       <c r="L25" s="1">
-        <v>22.913483</v>
+        <v>22.913482999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1200.920000</v>
+        <v>1200.92</v>
       </c>
       <c r="N25" s="1">
-        <v>-152.967000</v>
+        <v>-152.96700000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>82499.100908</v>
+        <v>82499.100907999993</v>
       </c>
       <c r="Q25" s="1">
-        <v>22.916417</v>
+        <v>22.916416999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1208.920000</v>
+        <v>1208.92</v>
       </c>
       <c r="S25" s="1">
-        <v>-130.509000</v>
+        <v>-130.50899999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>82509.506937</v>
+        <v>82509.506936999998</v>
       </c>
       <c r="V25" s="1">
         <v>22.919307</v>
       </c>
       <c r="W25" s="1">
-        <v>1216.480000</v>
+        <v>1216.48</v>
       </c>
       <c r="X25" s="1">
-        <v>-109.421000</v>
+        <v>-109.42100000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>82520.349484</v>
+        <v>82520.349484000006</v>
       </c>
       <c r="AA25" s="1">
-        <v>22.922319</v>
+        <v>22.922319000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>1224.510000</v>
+        <v>1224.51</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.745700</v>
+        <v>-91.745699999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>82530.800684</v>
+        <v>82530.800684000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>22.925222</v>
+        <v>22.925222000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1229.250000</v>
+        <v>1229.25</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.980800</v>
+        <v>-86.980800000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>82541.357535</v>
+        <v>82541.357535000003</v>
       </c>
       <c r="AK25" s="1">
         <v>22.928155</v>
       </c>
       <c r="AL25" s="1">
-        <v>1236.420000</v>
+        <v>1236.42</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.835300</v>
+        <v>-89.835300000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>82552.724885</v>
+        <v>82552.724885000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>22.931312</v>
+        <v>22.931311999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.440000</v>
+        <v>-101.44</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>82563.534176</v>
+        <v>82563.534176000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>22.934315</v>
+        <v>22.934315000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1254.230000</v>
+        <v>1254.23</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.537000</v>
+        <v>-120.53700000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>82574.475907</v>
       </c>
       <c r="AZ25" s="1">
-        <v>22.937354</v>
+        <v>22.937353999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1262.550000</v>
+        <v>1262.55</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.856000</v>
+        <v>-137.85599999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>82584.795670</v>
+        <v>82584.795670000007</v>
       </c>
       <c r="BE25" s="1">
-        <v>22.940221</v>
+        <v>22.940221000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1302.380000</v>
+        <v>1302.3800000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.551000</v>
+        <v>-219.55099999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>82595.939783</v>
+        <v>82595.939782999994</v>
       </c>
       <c r="BJ25" s="1">
         <v>22.943317</v>
       </c>
       <c r="BK25" s="1">
-        <v>1372.090000</v>
+        <v>1372.09</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.670000</v>
+        <v>-355.67</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>82606.609224</v>
       </c>
       <c r="BO25" s="1">
-        <v>22.946280</v>
+        <v>22.946280000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1487.060000</v>
+        <v>1487.06</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.602000</v>
+        <v>-576.60199999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>82617.308427</v>
+        <v>82617.308426999996</v>
       </c>
       <c r="BT25" s="1">
-        <v>22.949252</v>
+        <v>22.949252000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1619.610000</v>
+        <v>1619.61</v>
       </c>
       <c r="BV25" s="1">
-        <v>-825.698000</v>
+        <v>-825.69799999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>82628.201596</v>
+        <v>82628.201595999999</v>
       </c>
       <c r="BY25" s="1">
         <v>22.952278</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1772.440000</v>
+        <v>1772.44</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1094.520000</v>
+        <v>-1094.52</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>82641.403610</v>
+        <v>82641.403609999994</v>
       </c>
       <c r="CD25" s="1">
         <v>22.955945</v>
       </c>
       <c r="CE25" s="1">
-        <v>2187.770000</v>
+        <v>2187.77</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1744.750000</v>
+        <v>-1744.75</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>82467.938242</v>
+        <v>82467.938242000004</v>
       </c>
       <c r="B26" s="1">
-        <v>22.907761</v>
+        <v>22.907761000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1150.990000</v>
+        <v>1150.99</v>
       </c>
       <c r="D26" s="1">
-        <v>-260.237000</v>
+        <v>-260.23700000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>82478.383474</v>
+        <v>82478.383474000002</v>
       </c>
       <c r="G26" s="1">
-        <v>22.910662</v>
+        <v>22.910661999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1172.290000</v>
+        <v>1172.29</v>
       </c>
       <c r="I26" s="1">
-        <v>-218.965000</v>
+        <v>-218.965</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>82488.883780</v>
+        <v>82488.883780000004</v>
       </c>
       <c r="L26" s="1">
-        <v>22.913579</v>
+        <v>22.913578999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1200.570000</v>
+        <v>1200.57</v>
       </c>
       <c r="N26" s="1">
-        <v>-152.698000</v>
+        <v>-152.69800000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>82499.451543</v>
+        <v>82499.451543000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>22.916514</v>
+        <v>22.916513999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1208.910000</v>
+        <v>1208.9100000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-130.607000</v>
+        <v>-130.607</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>82509.852648</v>
@@ -6709,195 +7125,196 @@
         <v>22.919404</v>
       </c>
       <c r="W26" s="1">
-        <v>1216.480000</v>
+        <v>1216.48</v>
       </c>
       <c r="X26" s="1">
-        <v>-109.505000</v>
+        <v>-109.505</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>82521.014150</v>
+        <v>82521.014150000003</v>
       </c>
       <c r="AA26" s="1">
         <v>22.922504</v>
       </c>
       <c r="AB26" s="1">
-        <v>1224.470000</v>
+        <v>1224.47</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.768100</v>
+        <v>-91.768100000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>82531.249601</v>
+        <v>82531.249601000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>22.925347</v>
+        <v>22.925346999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1229.210000</v>
+        <v>1229.21</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.965500</v>
+        <v>-86.965500000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>82541.734008</v>
+        <v>82541.734007999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>22.928259</v>
+        <v>22.928259000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1236.400000</v>
+        <v>1236.4000000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.845200</v>
+        <v>-89.845200000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>82553.108785</v>
+        <v>82553.108785000004</v>
       </c>
       <c r="AP26" s="1">
-        <v>22.931419</v>
+        <v>22.931419000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1244.330000</v>
+        <v>1244.33</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.445000</v>
+        <v>-101.44499999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>82563.899713</v>
+        <v>82563.899713000006</v>
       </c>
       <c r="AU26" s="1">
         <v>22.934417</v>
       </c>
       <c r="AV26" s="1">
-        <v>1254.190000</v>
+        <v>1254.19</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.516000</v>
+        <v>-120.51600000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>82574.835011</v>
+        <v>82574.835011000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>22.937454</v>
+        <v>22.937453999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1262.530000</v>
+        <v>1262.53</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.840000</v>
+        <v>-137.84</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>82585.226235</v>
+        <v>82585.226234999995</v>
       </c>
       <c r="BE26" s="1">
         <v>22.940341</v>
       </c>
       <c r="BF26" s="1">
-        <v>1302.400000</v>
+        <v>1302.4000000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.568000</v>
+        <v>-219.56800000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>82596.364886</v>
+        <v>82596.364885999996</v>
       </c>
       <c r="BJ26" s="1">
-        <v>22.943435</v>
+        <v>22.943435000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1372.080000</v>
+        <v>1372.08</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.688000</v>
+        <v>-355.68799999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>82607.006025</v>
+        <v>82607.006024999995</v>
       </c>
       <c r="BO26" s="1">
-        <v>22.946391</v>
+        <v>22.946390999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1487.080000</v>
+        <v>1487.08</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.602000</v>
+        <v>-576.60199999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>82617.707706</v>
+        <v>82617.707706000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>22.949363</v>
+        <v>22.949363000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1619.690000</v>
+        <v>1619.69</v>
       </c>
       <c r="BV26" s="1">
-        <v>-825.603000</v>
+        <v>-825.60299999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>82628.647467</v>
+        <v>82628.647467000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>22.952402</v>
+        <v>22.952401999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1772.350000</v>
+        <v>1772.35</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1094.450000</v>
+        <v>-1094.45</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>82641.937280</v>
+        <v>82641.937279999998</v>
       </c>
       <c r="CD26" s="1">
         <v>22.956094</v>
       </c>
       <c r="CE26" s="1">
-        <v>2189.340000</v>
+        <v>2189.34</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1746.640000</v>
+        <v>-1746.64</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>